--- a/Översikt TROSA.xlsx
+++ b/Översikt TROSA.xlsx
@@ -572,7 +572,7 @@
         <v>43917</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -684,7 +684,7 @@
         <v>43704</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -787,7 +787,7 @@
         <v>43497</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -875,7 +875,7 @@
         <v>44088</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -962,7 +962,7 @@
         <v>43700</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1057,7 +1057,7 @@
         <v>43781</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1143,7 +1143,7 @@
         <v>44069</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1229,7 +1229,7 @@
         <v>44649</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1320,7 +1320,7 @@
         <v>43958</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1405,7 +1405,7 @@
         <v>43997</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1490,7 +1490,7 @@
         <v>44040</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1575,7 +1575,7 @@
         <v>44062</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1660,7 +1660,7 @@
         <v>44132</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1750,7 +1750,7 @@
         <v>44403</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1844,7 +1844,7 @@
         <v>44505</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1934,7 +1934,7 @@
         <v>43395</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1996,7 +1996,7 @@
         <v>43410</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2053,7 +2053,7 @@
         <v>43410</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2110,7 +2110,7 @@
         <v>43448</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2167,7 +2167,7 @@
         <v>43448</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2224,7 +2224,7 @@
         <v>43469</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2286,7 +2286,7 @@
         <v>43489</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2348,7 +2348,7 @@
         <v>43489</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2405,7 +2405,7 @@
         <v>43489</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2462,7 +2462,7 @@
         <v>43490</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2519,7 +2519,7 @@
         <v>43517</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2576,7 +2576,7 @@
         <v>43540</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2633,7 +2633,7 @@
         <v>43643</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2690,7 +2690,7 @@
         <v>43650</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2747,7 +2747,7 @@
         <v>43684</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2804,7 +2804,7 @@
         <v>43700</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2861,7 +2861,7 @@
         <v>43700</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2923,7 +2923,7 @@
         <v>43700</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2985,7 +2985,7 @@
         <v>43700</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3047,7 +3047,7 @@
         <v>43704</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3109,7 +3109,7 @@
         <v>43732</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3171,7 +3171,7 @@
         <v>43745</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3228,7 +3228,7 @@
         <v>43790</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3285,7 +3285,7 @@
         <v>43794</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3347,7 +3347,7 @@
         <v>43797</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3404,7 +3404,7 @@
         <v>43809</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3461,7 +3461,7 @@
         <v>43859</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3523,7 +3523,7 @@
         <v>43859</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3585,7 +3585,7 @@
         <v>43864</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3647,7 +3647,7 @@
         <v>43865</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3704,7 +3704,7 @@
         <v>43885</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3761,7 +3761,7 @@
         <v>43892</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3818,7 +3818,7 @@
         <v>43896</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3875,7 +3875,7 @@
         <v>43955</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3932,7 +3932,7 @@
         <v>43955</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3989,7 +3989,7 @@
         <v>43963</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4046,7 +4046,7 @@
         <v>43997</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4103,7 +4103,7 @@
         <v>43997</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4160,7 +4160,7 @@
         <v>44004</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4217,7 +4217,7 @@
         <v>44062</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4274,7 +4274,7 @@
         <v>44067</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4336,7 +4336,7 @@
         <v>44069</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4393,7 +4393,7 @@
         <v>44088</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4450,7 +4450,7 @@
         <v>44088</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4507,7 +4507,7 @@
         <v>44088</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4564,7 +4564,7 @@
         <v>44088</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4621,7 +4621,7 @@
         <v>44088</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4678,7 +4678,7 @@
         <v>44088</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4735,7 +4735,7 @@
         <v>44088</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4792,7 +4792,7 @@
         <v>44088</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4849,7 +4849,7 @@
         <v>44088</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4906,7 +4906,7 @@
         <v>44097</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4968,7 +4968,7 @@
         <v>44097</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5030,7 +5030,7 @@
         <v>44102</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5087,7 +5087,7 @@
         <v>44102</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5144,7 +5144,7 @@
         <v>44102</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5201,7 +5201,7 @@
         <v>44102</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5258,7 +5258,7 @@
         <v>44132</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5320,7 +5320,7 @@
         <v>44132</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5377,7 +5377,7 @@
         <v>44132</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5434,7 +5434,7 @@
         <v>44133</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5491,7 +5491,7 @@
         <v>44151</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5548,7 +5548,7 @@
         <v>44238</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5610,7 +5610,7 @@
         <v>44238</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5672,7 +5672,7 @@
         <v>44238</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5729,7 +5729,7 @@
         <v>44249</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5791,7 +5791,7 @@
         <v>44249</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5853,7 +5853,7 @@
         <v>44249</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5915,7 +5915,7 @@
         <v>44266</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5977,7 +5977,7 @@
         <v>44285</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6034,7 +6034,7 @@
         <v>44285</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6091,7 +6091,7 @@
         <v>44293</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6148,7 +6148,7 @@
         <v>44418</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6205,7 +6205,7 @@
         <v>44480</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6262,7 +6262,7 @@
         <v>44489</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6324,7 +6324,7 @@
         <v>44490</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6386,7 +6386,7 @@
         <v>44526</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6448,7 +6448,7 @@
         <v>44530</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6510,7 +6510,7 @@
         <v>44533</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6567,7 +6567,7 @@
         <v>44544</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6629,7 +6629,7 @@
         <v>44582</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6691,7 +6691,7 @@
         <v>44582</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6753,7 +6753,7 @@
         <v>44599</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6810,7 +6810,7 @@
         <v>44599</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6867,7 +6867,7 @@
         <v>44599</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6929,7 +6929,7 @@
         <v>44662</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6986,7 +6986,7 @@
         <v>44680</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7043,7 +7043,7 @@
         <v>44721</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7100,7 +7100,7 @@
         <v>44733</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7157,7 +7157,7 @@
         <v>44756</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7214,7 +7214,7 @@
         <v>44756</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7271,7 +7271,7 @@
         <v>44840</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7328,7 +7328,7 @@
         <v>44852</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7385,7 +7385,7 @@
         <v>44889</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7447,7 +7447,7 @@
         <v>44916</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7509,7 +7509,7 @@
         <v>44916</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7571,7 +7571,7 @@
         <v>44916</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7633,7 +7633,7 @@
         <v>44916</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7695,7 +7695,7 @@
         <v>44937</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7752,7 +7752,7 @@
         <v>44951</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7809,7 +7809,7 @@
         <v>44986</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7871,7 +7871,7 @@
         <v>45005</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7933,7 +7933,7 @@
         <v>45005</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7995,7 +7995,7 @@
         <v>45007</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8057,7 +8057,7 @@
         <v>45007</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8119,7 +8119,7 @@
         <v>45007</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8181,7 +8181,7 @@
         <v>45007</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8243,7 +8243,7 @@
         <v>45007</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8305,7 +8305,7 @@
         <v>45007</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8367,7 +8367,7 @@
         <v>45016</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8429,7 +8429,7 @@
         <v>45016</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8491,7 +8491,7 @@
         <v>45016</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8553,7 +8553,7 @@
         <v>45016</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8615,7 +8615,7 @@
         <v>45016</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8677,7 +8677,7 @@
         <v>45019</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8739,7 +8739,7 @@
         <v>45027</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8801,7 +8801,7 @@
         <v>45027</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8863,7 +8863,7 @@
         <v>45040</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8920,7 +8920,7 @@
         <v>45040</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>

--- a/Översikt TROSA.xlsx
+++ b/Översikt TROSA.xlsx
@@ -572,7 +572,7 @@
         <v>43917</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -684,7 +684,7 @@
         <v>43704</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -787,7 +787,7 @@
         <v>43497</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -875,7 +875,7 @@
         <v>44088</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -962,7 +962,7 @@
         <v>43700</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1057,7 +1057,7 @@
         <v>43781</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1143,7 +1143,7 @@
         <v>44069</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1229,7 +1229,7 @@
         <v>44649</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1320,7 +1320,7 @@
         <v>43958</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1405,7 +1405,7 @@
         <v>43997</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1490,7 +1490,7 @@
         <v>44040</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1575,7 +1575,7 @@
         <v>44062</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1660,7 +1660,7 @@
         <v>44132</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1750,7 +1750,7 @@
         <v>44403</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1844,7 +1844,7 @@
         <v>44505</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1934,7 +1934,7 @@
         <v>43395</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1996,7 +1996,7 @@
         <v>43410</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2053,7 +2053,7 @@
         <v>43410</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2110,7 +2110,7 @@
         <v>43448</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2167,7 +2167,7 @@
         <v>43448</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2224,7 +2224,7 @@
         <v>43469</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2286,7 +2286,7 @@
         <v>43489</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2348,7 +2348,7 @@
         <v>43489</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2405,7 +2405,7 @@
         <v>43489</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2462,7 +2462,7 @@
         <v>43490</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2519,7 +2519,7 @@
         <v>43517</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2576,7 +2576,7 @@
         <v>43540</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2633,7 +2633,7 @@
         <v>43643</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2690,7 +2690,7 @@
         <v>43650</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2747,7 +2747,7 @@
         <v>43684</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2804,7 +2804,7 @@
         <v>43700</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2861,7 +2861,7 @@
         <v>43700</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2923,7 +2923,7 @@
         <v>43700</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2985,7 +2985,7 @@
         <v>43700</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3047,7 +3047,7 @@
         <v>43704</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3109,7 +3109,7 @@
         <v>43732</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3171,7 +3171,7 @@
         <v>43745</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3228,7 +3228,7 @@
         <v>43790</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3285,7 +3285,7 @@
         <v>43794</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3347,7 +3347,7 @@
         <v>43797</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3404,7 +3404,7 @@
         <v>43809</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3461,7 +3461,7 @@
         <v>43859</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3523,7 +3523,7 @@
         <v>43859</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3585,7 +3585,7 @@
         <v>43864</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3647,7 +3647,7 @@
         <v>43865</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3704,7 +3704,7 @@
         <v>43885</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3761,7 +3761,7 @@
         <v>43892</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3818,7 +3818,7 @@
         <v>43896</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3875,7 +3875,7 @@
         <v>43955</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3932,7 +3932,7 @@
         <v>43955</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3989,7 +3989,7 @@
         <v>43963</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4046,7 +4046,7 @@
         <v>43997</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4103,7 +4103,7 @@
         <v>43997</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4160,7 +4160,7 @@
         <v>44004</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4217,7 +4217,7 @@
         <v>44062</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4274,7 +4274,7 @@
         <v>44067</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4336,7 +4336,7 @@
         <v>44069</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4393,7 +4393,7 @@
         <v>44088</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4450,7 +4450,7 @@
         <v>44088</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4507,7 +4507,7 @@
         <v>44088</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4564,7 +4564,7 @@
         <v>44088</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4621,7 +4621,7 @@
         <v>44088</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4678,7 +4678,7 @@
         <v>44088</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4735,7 +4735,7 @@
         <v>44088</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4792,7 +4792,7 @@
         <v>44088</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4849,7 +4849,7 @@
         <v>44088</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4906,7 +4906,7 @@
         <v>44097</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4968,7 +4968,7 @@
         <v>44097</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5030,7 +5030,7 @@
         <v>44102</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5087,7 +5087,7 @@
         <v>44102</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5144,7 +5144,7 @@
         <v>44102</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5201,7 +5201,7 @@
         <v>44102</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5258,7 +5258,7 @@
         <v>44132</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5320,7 +5320,7 @@
         <v>44132</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5377,7 +5377,7 @@
         <v>44132</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5434,7 +5434,7 @@
         <v>44133</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5491,7 +5491,7 @@
         <v>44151</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5548,7 +5548,7 @@
         <v>44238</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5610,7 +5610,7 @@
         <v>44238</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5672,7 +5672,7 @@
         <v>44238</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5729,7 +5729,7 @@
         <v>44249</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5791,7 +5791,7 @@
         <v>44249</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5853,7 +5853,7 @@
         <v>44249</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5915,7 +5915,7 @@
         <v>44266</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5977,7 +5977,7 @@
         <v>44285</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6034,7 +6034,7 @@
         <v>44285</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6091,7 +6091,7 @@
         <v>44293</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6148,7 +6148,7 @@
         <v>44418</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6205,7 +6205,7 @@
         <v>44480</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6262,7 +6262,7 @@
         <v>44489</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6324,7 +6324,7 @@
         <v>44490</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6386,7 +6386,7 @@
         <v>44526</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6448,7 +6448,7 @@
         <v>44530</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6510,7 +6510,7 @@
         <v>44533</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6567,7 +6567,7 @@
         <v>44544</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6629,7 +6629,7 @@
         <v>44582</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6691,7 +6691,7 @@
         <v>44582</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6753,7 +6753,7 @@
         <v>44599</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6810,7 +6810,7 @@
         <v>44599</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6867,7 +6867,7 @@
         <v>44599</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6929,7 +6929,7 @@
         <v>44662</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6986,7 +6986,7 @@
         <v>44680</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7043,7 +7043,7 @@
         <v>44721</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7100,7 +7100,7 @@
         <v>44733</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7157,7 +7157,7 @@
         <v>44756</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7214,7 +7214,7 @@
         <v>44756</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7271,7 +7271,7 @@
         <v>44840</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7328,7 +7328,7 @@
         <v>44852</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7385,7 +7385,7 @@
         <v>44889</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7447,7 +7447,7 @@
         <v>44916</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7509,7 +7509,7 @@
         <v>44916</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7571,7 +7571,7 @@
         <v>44916</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7633,7 +7633,7 @@
         <v>44916</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7695,7 +7695,7 @@
         <v>44937</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7752,7 +7752,7 @@
         <v>44951</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7809,7 +7809,7 @@
         <v>44986</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7871,7 +7871,7 @@
         <v>45005</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7933,7 +7933,7 @@
         <v>45005</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7995,7 +7995,7 @@
         <v>45007</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8057,7 +8057,7 @@
         <v>45007</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8119,7 +8119,7 @@
         <v>45007</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8181,7 +8181,7 @@
         <v>45007</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8243,7 +8243,7 @@
         <v>45007</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8305,7 +8305,7 @@
         <v>45007</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8367,7 +8367,7 @@
         <v>45016</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8429,7 +8429,7 @@
         <v>45016</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8491,7 +8491,7 @@
         <v>45016</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8553,7 +8553,7 @@
         <v>45016</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8615,7 +8615,7 @@
         <v>45016</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8677,7 +8677,7 @@
         <v>45019</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8739,7 +8739,7 @@
         <v>45027</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8801,7 +8801,7 @@
         <v>45027</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8863,7 +8863,7 @@
         <v>45040</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8920,7 +8920,7 @@
         <v>45040</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>

--- a/Översikt TROSA.xlsx
+++ b/Översikt TROSA.xlsx
@@ -572,7 +572,7 @@
         <v>43917</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -684,7 +684,7 @@
         <v>43704</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -787,7 +787,7 @@
         <v>43497</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -875,7 +875,7 @@
         <v>44088</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -962,7 +962,7 @@
         <v>43700</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1057,7 +1057,7 @@
         <v>43781</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1143,7 +1143,7 @@
         <v>44069</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1229,7 +1229,7 @@
         <v>44649</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1320,7 +1320,7 @@
         <v>43958</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1405,7 +1405,7 @@
         <v>43997</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1490,7 +1490,7 @@
         <v>44040</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1575,7 +1575,7 @@
         <v>44062</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1660,7 +1660,7 @@
         <v>44132</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1750,7 +1750,7 @@
         <v>44403</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1844,7 +1844,7 @@
         <v>44505</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1934,7 +1934,7 @@
         <v>43395</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1996,7 +1996,7 @@
         <v>43410</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2053,7 +2053,7 @@
         <v>43410</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2110,7 +2110,7 @@
         <v>43448</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2167,7 +2167,7 @@
         <v>43448</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2224,7 +2224,7 @@
         <v>43469</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2286,7 +2286,7 @@
         <v>43489</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2348,7 +2348,7 @@
         <v>43489</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2405,7 +2405,7 @@
         <v>43489</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2462,7 +2462,7 @@
         <v>43490</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2519,7 +2519,7 @@
         <v>43517</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2576,7 +2576,7 @@
         <v>43540</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2633,7 +2633,7 @@
         <v>43643</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2690,7 +2690,7 @@
         <v>43650</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2747,7 +2747,7 @@
         <v>43684</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2804,7 +2804,7 @@
         <v>43700</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2861,7 +2861,7 @@
         <v>43700</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2923,7 +2923,7 @@
         <v>43700</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2985,7 +2985,7 @@
         <v>43700</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3047,7 +3047,7 @@
         <v>43704</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3109,7 +3109,7 @@
         <v>43732</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3171,7 +3171,7 @@
         <v>43745</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3228,7 +3228,7 @@
         <v>43790</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3285,7 +3285,7 @@
         <v>43794</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3347,7 +3347,7 @@
         <v>43797</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3404,7 +3404,7 @@
         <v>43809</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3461,7 +3461,7 @@
         <v>43859</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3523,7 +3523,7 @@
         <v>43859</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3585,7 +3585,7 @@
         <v>43864</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3647,7 +3647,7 @@
         <v>43865</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3704,7 +3704,7 @@
         <v>43885</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3761,7 +3761,7 @@
         <v>43892</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3818,7 +3818,7 @@
         <v>43896</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3875,7 +3875,7 @@
         <v>43955</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3932,7 +3932,7 @@
         <v>43955</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3989,7 +3989,7 @@
         <v>43963</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4046,7 +4046,7 @@
         <v>43997</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4103,7 +4103,7 @@
         <v>43997</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4160,7 +4160,7 @@
         <v>44004</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4217,7 +4217,7 @@
         <v>44062</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4274,7 +4274,7 @@
         <v>44067</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4336,7 +4336,7 @@
         <v>44069</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4393,7 +4393,7 @@
         <v>44088</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4450,7 +4450,7 @@
         <v>44088</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4507,7 +4507,7 @@
         <v>44088</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4564,7 +4564,7 @@
         <v>44088</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4621,7 +4621,7 @@
         <v>44088</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4678,7 +4678,7 @@
         <v>44088</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4735,7 +4735,7 @@
         <v>44088</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4792,7 +4792,7 @@
         <v>44088</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4849,7 +4849,7 @@
         <v>44088</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4906,7 +4906,7 @@
         <v>44097</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4968,7 +4968,7 @@
         <v>44097</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5030,7 +5030,7 @@
         <v>44102</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5087,7 +5087,7 @@
         <v>44102</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5144,7 +5144,7 @@
         <v>44102</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5201,7 +5201,7 @@
         <v>44102</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5258,7 +5258,7 @@
         <v>44132</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5320,7 +5320,7 @@
         <v>44132</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5377,7 +5377,7 @@
         <v>44132</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5434,7 +5434,7 @@
         <v>44133</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5491,7 +5491,7 @@
         <v>44151</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5548,7 +5548,7 @@
         <v>44238</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5610,7 +5610,7 @@
         <v>44238</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5672,7 +5672,7 @@
         <v>44238</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5729,7 +5729,7 @@
         <v>44249</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5791,7 +5791,7 @@
         <v>44249</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5853,7 +5853,7 @@
         <v>44249</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5915,7 +5915,7 @@
         <v>44266</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5977,7 +5977,7 @@
         <v>44285</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6034,7 +6034,7 @@
         <v>44285</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6091,7 +6091,7 @@
         <v>44293</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6148,7 +6148,7 @@
         <v>44418</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6205,7 +6205,7 @@
         <v>44480</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6262,7 +6262,7 @@
         <v>44489</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6324,7 +6324,7 @@
         <v>44490</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6386,7 +6386,7 @@
         <v>44526</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6448,7 +6448,7 @@
         <v>44530</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6510,7 +6510,7 @@
         <v>44533</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6567,7 +6567,7 @@
         <v>44544</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6629,7 +6629,7 @@
         <v>44582</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6691,7 +6691,7 @@
         <v>44582</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6753,7 +6753,7 @@
         <v>44599</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6810,7 +6810,7 @@
         <v>44599</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6867,7 +6867,7 @@
         <v>44599</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6929,7 +6929,7 @@
         <v>44662</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6986,7 +6986,7 @@
         <v>44680</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7043,7 +7043,7 @@
         <v>44721</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7100,7 +7100,7 @@
         <v>44733</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7157,7 +7157,7 @@
         <v>44756</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7214,7 +7214,7 @@
         <v>44756</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7271,7 +7271,7 @@
         <v>44840</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7328,7 +7328,7 @@
         <v>44852</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7385,7 +7385,7 @@
         <v>44889</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7447,7 +7447,7 @@
         <v>44916</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7509,7 +7509,7 @@
         <v>44916</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7571,7 +7571,7 @@
         <v>44916</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7633,7 +7633,7 @@
         <v>44916</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7695,7 +7695,7 @@
         <v>44937</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7752,7 +7752,7 @@
         <v>44951</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7809,7 +7809,7 @@
         <v>44986</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7871,7 +7871,7 @@
         <v>45005</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7933,7 +7933,7 @@
         <v>45005</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7995,7 +7995,7 @@
         <v>45007</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8057,7 +8057,7 @@
         <v>45007</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8119,7 +8119,7 @@
         <v>45007</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8181,7 +8181,7 @@
         <v>45007</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8243,7 +8243,7 @@
         <v>45007</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8305,7 +8305,7 @@
         <v>45007</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8367,7 +8367,7 @@
         <v>45016</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8429,7 +8429,7 @@
         <v>45016</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8491,7 +8491,7 @@
         <v>45016</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8553,7 +8553,7 @@
         <v>45016</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8615,7 +8615,7 @@
         <v>45016</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8677,7 +8677,7 @@
         <v>45019</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8739,7 +8739,7 @@
         <v>45027</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8801,7 +8801,7 @@
         <v>45027</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8863,7 +8863,7 @@
         <v>45040</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8920,7 +8920,7 @@
         <v>45040</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>

--- a/Översikt TROSA.xlsx
+++ b/Översikt TROSA.xlsx
@@ -572,7 +572,7 @@
         <v>43917</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -684,7 +684,7 @@
         <v>43704</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -787,7 +787,7 @@
         <v>43497</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -875,7 +875,7 @@
         <v>44088</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -962,7 +962,7 @@
         <v>43700</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1057,7 +1057,7 @@
         <v>43781</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1143,7 +1143,7 @@
         <v>44069</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1229,7 +1229,7 @@
         <v>44649</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1320,7 +1320,7 @@
         <v>43958</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1405,7 +1405,7 @@
         <v>43997</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1490,7 +1490,7 @@
         <v>44040</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1575,7 +1575,7 @@
         <v>44062</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1660,7 +1660,7 @@
         <v>44132</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1750,7 +1750,7 @@
         <v>44403</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1844,7 +1844,7 @@
         <v>44505</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1934,7 +1934,7 @@
         <v>43395</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1996,7 +1996,7 @@
         <v>43410</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2053,7 +2053,7 @@
         <v>43410</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2110,7 +2110,7 @@
         <v>43448</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2167,7 +2167,7 @@
         <v>43448</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2224,7 +2224,7 @@
         <v>43469</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2286,7 +2286,7 @@
         <v>43489</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2348,7 +2348,7 @@
         <v>43489</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2405,7 +2405,7 @@
         <v>43489</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2462,7 +2462,7 @@
         <v>43490</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2519,7 +2519,7 @@
         <v>43517</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2576,7 +2576,7 @@
         <v>43540</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2633,7 +2633,7 @@
         <v>43643</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2690,7 +2690,7 @@
         <v>43650</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2747,7 +2747,7 @@
         <v>43684</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2804,7 +2804,7 @@
         <v>43700</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2861,7 +2861,7 @@
         <v>43700</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2923,7 +2923,7 @@
         <v>43700</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2985,7 +2985,7 @@
         <v>43700</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3047,7 +3047,7 @@
         <v>43704</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3109,7 +3109,7 @@
         <v>43732</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3171,7 +3171,7 @@
         <v>43745</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3228,7 +3228,7 @@
         <v>43790</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3285,7 +3285,7 @@
         <v>43794</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3347,7 +3347,7 @@
         <v>43797</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3404,7 +3404,7 @@
         <v>43809</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3461,7 +3461,7 @@
         <v>43859</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3523,7 +3523,7 @@
         <v>43859</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3585,7 +3585,7 @@
         <v>43864</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3647,7 +3647,7 @@
         <v>43865</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3704,7 +3704,7 @@
         <v>43885</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3761,7 +3761,7 @@
         <v>43892</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3818,7 +3818,7 @@
         <v>43896</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3875,7 +3875,7 @@
         <v>43955</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3932,7 +3932,7 @@
         <v>43955</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3989,7 +3989,7 @@
         <v>43963</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4046,7 +4046,7 @@
         <v>43997</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4103,7 +4103,7 @@
         <v>43997</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4160,7 +4160,7 @@
         <v>44004</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4217,7 +4217,7 @@
         <v>44062</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4274,7 +4274,7 @@
         <v>44067</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4336,7 +4336,7 @@
         <v>44069</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4393,7 +4393,7 @@
         <v>44088</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4450,7 +4450,7 @@
         <v>44088</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4507,7 +4507,7 @@
         <v>44088</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4564,7 +4564,7 @@
         <v>44088</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4621,7 +4621,7 @@
         <v>44088</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4678,7 +4678,7 @@
         <v>44088</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4735,7 +4735,7 @@
         <v>44088</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4792,7 +4792,7 @@
         <v>44088</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4849,7 +4849,7 @@
         <v>44088</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4906,7 +4906,7 @@
         <v>44097</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4968,7 +4968,7 @@
         <v>44097</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5030,7 +5030,7 @@
         <v>44102</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5087,7 +5087,7 @@
         <v>44102</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5144,7 +5144,7 @@
         <v>44102</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5201,7 +5201,7 @@
         <v>44102</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5258,7 +5258,7 @@
         <v>44132</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5320,7 +5320,7 @@
         <v>44132</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5377,7 +5377,7 @@
         <v>44132</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5434,7 +5434,7 @@
         <v>44133</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5491,7 +5491,7 @@
         <v>44151</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5548,7 +5548,7 @@
         <v>44238</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5610,7 +5610,7 @@
         <v>44238</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5672,7 +5672,7 @@
         <v>44238</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5729,7 +5729,7 @@
         <v>44249</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5791,7 +5791,7 @@
         <v>44249</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5853,7 +5853,7 @@
         <v>44249</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5915,7 +5915,7 @@
         <v>44266</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5977,7 +5977,7 @@
         <v>44285</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6034,7 +6034,7 @@
         <v>44285</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6091,7 +6091,7 @@
         <v>44293</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6148,7 +6148,7 @@
         <v>44418</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6205,7 +6205,7 @@
         <v>44480</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6262,7 +6262,7 @@
         <v>44489</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6324,7 +6324,7 @@
         <v>44490</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6386,7 +6386,7 @@
         <v>44526</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6448,7 +6448,7 @@
         <v>44530</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6510,7 +6510,7 @@
         <v>44533</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6567,7 +6567,7 @@
         <v>44544</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6629,7 +6629,7 @@
         <v>44582</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6691,7 +6691,7 @@
         <v>44582</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6753,7 +6753,7 @@
         <v>44599</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6810,7 +6810,7 @@
         <v>44599</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6867,7 +6867,7 @@
         <v>44599</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6929,7 +6929,7 @@
         <v>44662</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6986,7 +6986,7 @@
         <v>44680</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7043,7 +7043,7 @@
         <v>44721</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7100,7 +7100,7 @@
         <v>44733</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7157,7 +7157,7 @@
         <v>44756</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7214,7 +7214,7 @@
         <v>44756</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7271,7 +7271,7 @@
         <v>44840</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7328,7 +7328,7 @@
         <v>44852</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7385,7 +7385,7 @@
         <v>44889</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7447,7 +7447,7 @@
         <v>44916</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7509,7 +7509,7 @@
         <v>44916</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7571,7 +7571,7 @@
         <v>44916</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7633,7 +7633,7 @@
         <v>44916</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7695,7 +7695,7 @@
         <v>44937</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7752,7 +7752,7 @@
         <v>44951</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7809,7 +7809,7 @@
         <v>44986</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7871,7 +7871,7 @@
         <v>45005</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7933,7 +7933,7 @@
         <v>45005</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7995,7 +7995,7 @@
         <v>45007</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8057,7 +8057,7 @@
         <v>45007</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8119,7 +8119,7 @@
         <v>45007</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8181,7 +8181,7 @@
         <v>45007</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8243,7 +8243,7 @@
         <v>45007</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8305,7 +8305,7 @@
         <v>45007</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8367,7 +8367,7 @@
         <v>45016</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8429,7 +8429,7 @@
         <v>45016</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8491,7 +8491,7 @@
         <v>45016</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8553,7 +8553,7 @@
         <v>45016</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8615,7 +8615,7 @@
         <v>45016</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8677,7 +8677,7 @@
         <v>45019</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8739,7 +8739,7 @@
         <v>45027</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8801,7 +8801,7 @@
         <v>45027</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8863,7 +8863,7 @@
         <v>45040</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8920,7 +8920,7 @@
         <v>45040</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>

--- a/Översikt TROSA.xlsx
+++ b/Översikt TROSA.xlsx
@@ -572,7 +572,7 @@
         <v>43917</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -684,7 +684,7 @@
         <v>43704</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -787,7 +787,7 @@
         <v>43497</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -875,7 +875,7 @@
         <v>44088</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -962,7 +962,7 @@
         <v>43700</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1057,7 +1057,7 @@
         <v>43781</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1143,7 +1143,7 @@
         <v>44069</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1229,7 +1229,7 @@
         <v>44649</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1320,7 +1320,7 @@
         <v>43958</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1405,7 +1405,7 @@
         <v>43997</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1490,7 +1490,7 @@
         <v>44040</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1575,7 +1575,7 @@
         <v>44062</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1660,7 +1660,7 @@
         <v>44132</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1750,7 +1750,7 @@
         <v>44403</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1844,7 +1844,7 @@
         <v>44505</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1934,7 +1934,7 @@
         <v>43395</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1996,7 +1996,7 @@
         <v>43410</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2053,7 +2053,7 @@
         <v>43410</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2110,7 +2110,7 @@
         <v>43448</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2167,7 +2167,7 @@
         <v>43448</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2224,7 +2224,7 @@
         <v>43469</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2286,7 +2286,7 @@
         <v>43489</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2348,7 +2348,7 @@
         <v>43489</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2405,7 +2405,7 @@
         <v>43489</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2462,7 +2462,7 @@
         <v>43490</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2519,7 +2519,7 @@
         <v>43517</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2576,7 +2576,7 @@
         <v>43540</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2633,7 +2633,7 @@
         <v>43643</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2690,7 +2690,7 @@
         <v>43650</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2747,7 +2747,7 @@
         <v>43684</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2804,7 +2804,7 @@
         <v>43700</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2861,7 +2861,7 @@
         <v>43700</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2923,7 +2923,7 @@
         <v>43700</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2985,7 +2985,7 @@
         <v>43700</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3047,7 +3047,7 @@
         <v>43704</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3109,7 +3109,7 @@
         <v>43732</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3171,7 +3171,7 @@
         <v>43745</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3228,7 +3228,7 @@
         <v>43790</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3285,7 +3285,7 @@
         <v>43794</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3347,7 +3347,7 @@
         <v>43797</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3404,7 +3404,7 @@
         <v>43809</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3461,7 +3461,7 @@
         <v>43859</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3523,7 +3523,7 @@
         <v>43859</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3585,7 +3585,7 @@
         <v>43864</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3647,7 +3647,7 @@
         <v>43865</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3704,7 +3704,7 @@
         <v>43885</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3761,7 +3761,7 @@
         <v>43892</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3818,7 +3818,7 @@
         <v>43896</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3875,7 +3875,7 @@
         <v>43955</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3932,7 +3932,7 @@
         <v>43955</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3989,7 +3989,7 @@
         <v>43963</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4046,7 +4046,7 @@
         <v>43997</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4103,7 +4103,7 @@
         <v>43997</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4160,7 +4160,7 @@
         <v>44004</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4217,7 +4217,7 @@
         <v>44062</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4274,7 +4274,7 @@
         <v>44067</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4336,7 +4336,7 @@
         <v>44069</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4393,7 +4393,7 @@
         <v>44088</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4450,7 +4450,7 @@
         <v>44088</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4507,7 +4507,7 @@
         <v>44088</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4564,7 +4564,7 @@
         <v>44088</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4621,7 +4621,7 @@
         <v>44088</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4678,7 +4678,7 @@
         <v>44088</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4735,7 +4735,7 @@
         <v>44088</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4792,7 +4792,7 @@
         <v>44088</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4849,7 +4849,7 @@
         <v>44088</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4906,7 +4906,7 @@
         <v>44097</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4968,7 +4968,7 @@
         <v>44097</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5030,7 +5030,7 @@
         <v>44102</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5087,7 +5087,7 @@
         <v>44102</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5144,7 +5144,7 @@
         <v>44102</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5201,7 +5201,7 @@
         <v>44102</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5258,7 +5258,7 @@
         <v>44132</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5320,7 +5320,7 @@
         <v>44132</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5377,7 +5377,7 @@
         <v>44132</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5434,7 +5434,7 @@
         <v>44133</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5491,7 +5491,7 @@
         <v>44151</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5548,7 +5548,7 @@
         <v>44238</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5610,7 +5610,7 @@
         <v>44238</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5672,7 +5672,7 @@
         <v>44238</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5729,7 +5729,7 @@
         <v>44249</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5791,7 +5791,7 @@
         <v>44249</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5853,7 +5853,7 @@
         <v>44249</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5915,7 +5915,7 @@
         <v>44266</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5977,7 +5977,7 @@
         <v>44285</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6034,7 +6034,7 @@
         <v>44285</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6091,7 +6091,7 @@
         <v>44293</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6148,7 +6148,7 @@
         <v>44418</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6205,7 +6205,7 @@
         <v>44480</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6262,7 +6262,7 @@
         <v>44489</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6324,7 +6324,7 @@
         <v>44490</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6386,7 +6386,7 @@
         <v>44526</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6448,7 +6448,7 @@
         <v>44530</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6510,7 +6510,7 @@
         <v>44533</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6567,7 +6567,7 @@
         <v>44544</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6629,7 +6629,7 @@
         <v>44582</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6691,7 +6691,7 @@
         <v>44582</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6753,7 +6753,7 @@
         <v>44599</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6810,7 +6810,7 @@
         <v>44599</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6867,7 +6867,7 @@
         <v>44599</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6929,7 +6929,7 @@
         <v>44662</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6986,7 +6986,7 @@
         <v>44680</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7043,7 +7043,7 @@
         <v>44721</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7100,7 +7100,7 @@
         <v>44733</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7157,7 +7157,7 @@
         <v>44756</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7214,7 +7214,7 @@
         <v>44756</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7271,7 +7271,7 @@
         <v>44840</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7328,7 +7328,7 @@
         <v>44852</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7385,7 +7385,7 @@
         <v>44889</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7447,7 +7447,7 @@
         <v>44916</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7509,7 +7509,7 @@
         <v>44916</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7571,7 +7571,7 @@
         <v>44916</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7633,7 +7633,7 @@
         <v>44916</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7695,7 +7695,7 @@
         <v>44937</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7752,7 +7752,7 @@
         <v>44951</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7809,7 +7809,7 @@
         <v>44986</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7871,7 +7871,7 @@
         <v>45005</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7933,7 +7933,7 @@
         <v>45005</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7995,7 +7995,7 @@
         <v>45007</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8057,7 +8057,7 @@
         <v>45007</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8119,7 +8119,7 @@
         <v>45007</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8181,7 +8181,7 @@
         <v>45007</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8243,7 +8243,7 @@
         <v>45007</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8305,7 +8305,7 @@
         <v>45007</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8367,7 +8367,7 @@
         <v>45016</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8429,7 +8429,7 @@
         <v>45016</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8491,7 +8491,7 @@
         <v>45016</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8553,7 +8553,7 @@
         <v>45016</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8615,7 +8615,7 @@
         <v>45016</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8677,7 +8677,7 @@
         <v>45019</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8739,7 +8739,7 @@
         <v>45027</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8801,7 +8801,7 @@
         <v>45027</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8863,7 +8863,7 @@
         <v>45040</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8920,7 +8920,7 @@
         <v>45040</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>

--- a/Översikt TROSA.xlsx
+++ b/Översikt TROSA.xlsx
@@ -572,7 +572,7 @@
         <v>43917</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -684,7 +684,7 @@
         <v>43704</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -787,7 +787,7 @@
         <v>43497</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -875,7 +875,7 @@
         <v>44088</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -962,7 +962,7 @@
         <v>43700</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1057,7 +1057,7 @@
         <v>43781</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1143,7 +1143,7 @@
         <v>44069</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1229,7 +1229,7 @@
         <v>44649</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1320,7 +1320,7 @@
         <v>43958</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1405,7 +1405,7 @@
         <v>43997</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1490,7 +1490,7 @@
         <v>44040</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1575,7 +1575,7 @@
         <v>44062</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1660,7 +1660,7 @@
         <v>44132</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1750,7 +1750,7 @@
         <v>44403</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1844,7 +1844,7 @@
         <v>44505</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1934,7 +1934,7 @@
         <v>43395</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1996,7 +1996,7 @@
         <v>43410</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2053,7 +2053,7 @@
         <v>43410</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2110,7 +2110,7 @@
         <v>43448</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2167,7 +2167,7 @@
         <v>43448</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2224,7 +2224,7 @@
         <v>43469</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2286,7 +2286,7 @@
         <v>43489</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2348,7 +2348,7 @@
         <v>43489</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2405,7 +2405,7 @@
         <v>43489</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2462,7 +2462,7 @@
         <v>43490</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2519,7 +2519,7 @@
         <v>43517</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2576,7 +2576,7 @@
         <v>43540</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2633,7 +2633,7 @@
         <v>43643</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2690,7 +2690,7 @@
         <v>43650</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2747,7 +2747,7 @@
         <v>43684</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2804,7 +2804,7 @@
         <v>43700</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2861,7 +2861,7 @@
         <v>43700</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2923,7 +2923,7 @@
         <v>43700</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2985,7 +2985,7 @@
         <v>43700</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3047,7 +3047,7 @@
         <v>43704</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3109,7 +3109,7 @@
         <v>43732</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3171,7 +3171,7 @@
         <v>43745</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3228,7 +3228,7 @@
         <v>43790</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3285,7 +3285,7 @@
         <v>43794</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3347,7 +3347,7 @@
         <v>43797</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3404,7 +3404,7 @@
         <v>43809</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3461,7 +3461,7 @@
         <v>43859</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3523,7 +3523,7 @@
         <v>43859</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3585,7 +3585,7 @@
         <v>43864</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3647,7 +3647,7 @@
         <v>43865</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3704,7 +3704,7 @@
         <v>43885</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3761,7 +3761,7 @@
         <v>43892</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3818,7 +3818,7 @@
         <v>43896</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3875,7 +3875,7 @@
         <v>43955</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3932,7 +3932,7 @@
         <v>43955</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3989,7 +3989,7 @@
         <v>43963</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4046,7 +4046,7 @@
         <v>43997</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4103,7 +4103,7 @@
         <v>43997</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4160,7 +4160,7 @@
         <v>44004</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4217,7 +4217,7 @@
         <v>44062</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4274,7 +4274,7 @@
         <v>44067</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4336,7 +4336,7 @@
         <v>44069</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4393,7 +4393,7 @@
         <v>44088</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4450,7 +4450,7 @@
         <v>44088</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4507,7 +4507,7 @@
         <v>44088</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4564,7 +4564,7 @@
         <v>44088</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4621,7 +4621,7 @@
         <v>44088</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4678,7 +4678,7 @@
         <v>44088</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4735,7 +4735,7 @@
         <v>44088</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4792,7 +4792,7 @@
         <v>44088</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4849,7 +4849,7 @@
         <v>44088</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4906,7 +4906,7 @@
         <v>44097</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4968,7 +4968,7 @@
         <v>44097</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5030,7 +5030,7 @@
         <v>44102</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5087,7 +5087,7 @@
         <v>44102</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5144,7 +5144,7 @@
         <v>44102</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5201,7 +5201,7 @@
         <v>44102</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5258,7 +5258,7 @@
         <v>44132</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5320,7 +5320,7 @@
         <v>44132</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5377,7 +5377,7 @@
         <v>44132</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5434,7 +5434,7 @@
         <v>44133</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5491,7 +5491,7 @@
         <v>44151</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5548,7 +5548,7 @@
         <v>44238</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5610,7 +5610,7 @@
         <v>44238</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5672,7 +5672,7 @@
         <v>44238</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5729,7 +5729,7 @@
         <v>44249</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5791,7 +5791,7 @@
         <v>44249</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5853,7 +5853,7 @@
         <v>44249</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5915,7 +5915,7 @@
         <v>44266</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5977,7 +5977,7 @@
         <v>44285</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6034,7 +6034,7 @@
         <v>44285</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6091,7 +6091,7 @@
         <v>44293</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6148,7 +6148,7 @@
         <v>44418</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6205,7 +6205,7 @@
         <v>44480</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6262,7 +6262,7 @@
         <v>44489</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6324,7 +6324,7 @@
         <v>44490</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6386,7 +6386,7 @@
         <v>44526</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6448,7 +6448,7 @@
         <v>44530</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6510,7 +6510,7 @@
         <v>44533</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6567,7 +6567,7 @@
         <v>44544</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6629,7 +6629,7 @@
         <v>44582</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6691,7 +6691,7 @@
         <v>44582</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6753,7 +6753,7 @@
         <v>44599</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6810,7 +6810,7 @@
         <v>44599</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6867,7 +6867,7 @@
         <v>44599</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6929,7 +6929,7 @@
         <v>44662</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6986,7 +6986,7 @@
         <v>44680</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7043,7 +7043,7 @@
         <v>44721</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7100,7 +7100,7 @@
         <v>44733</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7157,7 +7157,7 @@
         <v>44756</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7214,7 +7214,7 @@
         <v>44756</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7271,7 +7271,7 @@
         <v>44840</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7328,7 +7328,7 @@
         <v>44852</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7385,7 +7385,7 @@
         <v>44889</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7447,7 +7447,7 @@
         <v>44916</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7509,7 +7509,7 @@
         <v>44916</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7571,7 +7571,7 @@
         <v>44916</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7633,7 +7633,7 @@
         <v>44916</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7695,7 +7695,7 @@
         <v>44937</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7752,7 +7752,7 @@
         <v>44951</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7809,7 +7809,7 @@
         <v>44986</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7871,7 +7871,7 @@
         <v>45005</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7933,7 +7933,7 @@
         <v>45005</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7995,7 +7995,7 @@
         <v>45007</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8057,7 +8057,7 @@
         <v>45007</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8119,7 +8119,7 @@
         <v>45007</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8181,7 +8181,7 @@
         <v>45007</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8243,7 +8243,7 @@
         <v>45007</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8305,7 +8305,7 @@
         <v>45007</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8367,7 +8367,7 @@
         <v>45016</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8429,7 +8429,7 @@
         <v>45016</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8491,7 +8491,7 @@
         <v>45016</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8553,7 +8553,7 @@
         <v>45016</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8615,7 +8615,7 @@
         <v>45016</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8677,7 +8677,7 @@
         <v>45019</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8739,7 +8739,7 @@
         <v>45027</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8801,7 +8801,7 @@
         <v>45027</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8863,7 +8863,7 @@
         <v>45040</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8920,7 +8920,7 @@
         <v>45040</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>

--- a/Översikt TROSA.xlsx
+++ b/Översikt TROSA.xlsx
@@ -572,7 +572,7 @@
         <v>43917</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -684,7 +684,7 @@
         <v>43704</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -787,7 +787,7 @@
         <v>43497</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -875,7 +875,7 @@
         <v>44088</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -962,7 +962,7 @@
         <v>43700</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1057,7 +1057,7 @@
         <v>43781</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1143,7 +1143,7 @@
         <v>44069</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1229,7 +1229,7 @@
         <v>44649</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1320,7 +1320,7 @@
         <v>43958</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1405,7 +1405,7 @@
         <v>43997</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1490,7 +1490,7 @@
         <v>44040</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1575,7 +1575,7 @@
         <v>44062</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1660,7 +1660,7 @@
         <v>44132</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1750,7 +1750,7 @@
         <v>44403</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1844,7 +1844,7 @@
         <v>44505</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1934,7 +1934,7 @@
         <v>43395</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1996,7 +1996,7 @@
         <v>43410</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2053,7 +2053,7 @@
         <v>43410</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2110,7 +2110,7 @@
         <v>43448</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2167,7 +2167,7 @@
         <v>43448</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2224,7 +2224,7 @@
         <v>43469</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2286,7 +2286,7 @@
         <v>43489</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2348,7 +2348,7 @@
         <v>43489</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2405,7 +2405,7 @@
         <v>43489</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2462,7 +2462,7 @@
         <v>43490</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2519,7 +2519,7 @@
         <v>43517</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2576,7 +2576,7 @@
         <v>43540</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2633,7 +2633,7 @@
         <v>43643</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2690,7 +2690,7 @@
         <v>43650</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2747,7 +2747,7 @@
         <v>43684</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2804,7 +2804,7 @@
         <v>43700</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2861,7 +2861,7 @@
         <v>43700</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2923,7 +2923,7 @@
         <v>43700</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2985,7 +2985,7 @@
         <v>43700</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3047,7 +3047,7 @@
         <v>43704</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3109,7 +3109,7 @@
         <v>43732</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3171,7 +3171,7 @@
         <v>43745</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3228,7 +3228,7 @@
         <v>43790</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3285,7 +3285,7 @@
         <v>43794</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3347,7 +3347,7 @@
         <v>43797</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3404,7 +3404,7 @@
         <v>43809</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3461,7 +3461,7 @@
         <v>43859</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3523,7 +3523,7 @@
         <v>43859</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3585,7 +3585,7 @@
         <v>43864</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3647,7 +3647,7 @@
         <v>43865</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3704,7 +3704,7 @@
         <v>43885</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3761,7 +3761,7 @@
         <v>43892</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3818,7 +3818,7 @@
         <v>43896</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3875,7 +3875,7 @@
         <v>43955</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3932,7 +3932,7 @@
         <v>43955</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3989,7 +3989,7 @@
         <v>43963</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4046,7 +4046,7 @@
         <v>43997</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4103,7 +4103,7 @@
         <v>43997</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4160,7 +4160,7 @@
         <v>44004</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4217,7 +4217,7 @@
         <v>44062</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4274,7 +4274,7 @@
         <v>44067</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4336,7 +4336,7 @@
         <v>44069</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4393,7 +4393,7 @@
         <v>44088</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4450,7 +4450,7 @@
         <v>44088</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4507,7 +4507,7 @@
         <v>44088</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4564,7 +4564,7 @@
         <v>44088</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4621,7 +4621,7 @@
         <v>44088</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4678,7 +4678,7 @@
         <v>44088</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4735,7 +4735,7 @@
         <v>44088</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4792,7 +4792,7 @@
         <v>44088</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4849,7 +4849,7 @@
         <v>44088</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4906,7 +4906,7 @@
         <v>44097</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4968,7 +4968,7 @@
         <v>44097</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5030,7 +5030,7 @@
         <v>44102</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5087,7 +5087,7 @@
         <v>44102</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5144,7 +5144,7 @@
         <v>44102</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5201,7 +5201,7 @@
         <v>44102</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5258,7 +5258,7 @@
         <v>44132</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5320,7 +5320,7 @@
         <v>44132</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5377,7 +5377,7 @@
         <v>44132</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5434,7 +5434,7 @@
         <v>44133</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5491,7 +5491,7 @@
         <v>44151</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5548,7 +5548,7 @@
         <v>44238</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5610,7 +5610,7 @@
         <v>44238</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5672,7 +5672,7 @@
         <v>44238</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5729,7 +5729,7 @@
         <v>44249</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5791,7 +5791,7 @@
         <v>44249</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5853,7 +5853,7 @@
         <v>44249</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5915,7 +5915,7 @@
         <v>44266</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5977,7 +5977,7 @@
         <v>44285</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6034,7 +6034,7 @@
         <v>44285</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6091,7 +6091,7 @@
         <v>44293</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6148,7 +6148,7 @@
         <v>44418</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6205,7 +6205,7 @@
         <v>44480</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6262,7 +6262,7 @@
         <v>44489</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6324,7 +6324,7 @@
         <v>44490</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6386,7 +6386,7 @@
         <v>44526</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6448,7 +6448,7 @@
         <v>44530</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6510,7 +6510,7 @@
         <v>44533</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6567,7 +6567,7 @@
         <v>44544</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6629,7 +6629,7 @@
         <v>44582</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6691,7 +6691,7 @@
         <v>44582</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6753,7 +6753,7 @@
         <v>44599</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6810,7 +6810,7 @@
         <v>44599</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6867,7 +6867,7 @@
         <v>44599</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6929,7 +6929,7 @@
         <v>44662</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6986,7 +6986,7 @@
         <v>44680</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7043,7 +7043,7 @@
         <v>44721</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7100,7 +7100,7 @@
         <v>44733</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7157,7 +7157,7 @@
         <v>44756</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7214,7 +7214,7 @@
         <v>44756</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7271,7 +7271,7 @@
         <v>44840</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7328,7 +7328,7 @@
         <v>44852</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7385,7 +7385,7 @@
         <v>44889</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7447,7 +7447,7 @@
         <v>44916</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7509,7 +7509,7 @@
         <v>44916</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7571,7 +7571,7 @@
         <v>44916</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7633,7 +7633,7 @@
         <v>44916</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7695,7 +7695,7 @@
         <v>44937</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7752,7 +7752,7 @@
         <v>44951</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7809,7 +7809,7 @@
         <v>44986</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7871,7 +7871,7 @@
         <v>45005</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7933,7 +7933,7 @@
         <v>45005</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7995,7 +7995,7 @@
         <v>45007</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8057,7 +8057,7 @@
         <v>45007</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8119,7 +8119,7 @@
         <v>45007</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8181,7 +8181,7 @@
         <v>45007</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8243,7 +8243,7 @@
         <v>45007</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8305,7 +8305,7 @@
         <v>45007</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8367,7 +8367,7 @@
         <v>45016</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8429,7 +8429,7 @@
         <v>45016</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8491,7 +8491,7 @@
         <v>45016</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8553,7 +8553,7 @@
         <v>45016</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8615,7 +8615,7 @@
         <v>45016</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8677,7 +8677,7 @@
         <v>45019</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8739,7 +8739,7 @@
         <v>45027</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8801,7 +8801,7 @@
         <v>45027</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8863,7 +8863,7 @@
         <v>45040</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8920,7 +8920,7 @@
         <v>45040</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>

--- a/Översikt TROSA.xlsx
+++ b/Översikt TROSA.xlsx
@@ -572,7 +572,7 @@
         <v>43917</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -684,7 +684,7 @@
         <v>43704</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -787,7 +787,7 @@
         <v>43497</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -875,7 +875,7 @@
         <v>44088</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -962,7 +962,7 @@
         <v>43700</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1057,7 +1057,7 @@
         <v>43781</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1143,7 +1143,7 @@
         <v>44069</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1229,7 +1229,7 @@
         <v>44649</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1320,7 +1320,7 @@
         <v>43958</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1405,7 +1405,7 @@
         <v>43997</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1490,7 +1490,7 @@
         <v>44040</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1575,7 +1575,7 @@
         <v>44062</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1660,7 +1660,7 @@
         <v>44132</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1750,7 +1750,7 @@
         <v>44403</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1844,7 +1844,7 @@
         <v>44505</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1934,7 +1934,7 @@
         <v>43395</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1996,7 +1996,7 @@
         <v>43410</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2053,7 +2053,7 @@
         <v>43410</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2110,7 +2110,7 @@
         <v>43448</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2167,7 +2167,7 @@
         <v>43448</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2224,7 +2224,7 @@
         <v>43469</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2286,7 +2286,7 @@
         <v>43489</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2348,7 +2348,7 @@
         <v>43489</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2405,7 +2405,7 @@
         <v>43489</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2462,7 +2462,7 @@
         <v>43490</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2519,7 +2519,7 @@
         <v>43517</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2576,7 +2576,7 @@
         <v>43540</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2633,7 +2633,7 @@
         <v>43643</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2690,7 +2690,7 @@
         <v>43650</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2747,7 +2747,7 @@
         <v>43684</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2804,7 +2804,7 @@
         <v>43700</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2861,7 +2861,7 @@
         <v>43700</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2923,7 +2923,7 @@
         <v>43700</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2985,7 +2985,7 @@
         <v>43700</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3047,7 +3047,7 @@
         <v>43704</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3109,7 +3109,7 @@
         <v>43732</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3171,7 +3171,7 @@
         <v>43745</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3228,7 +3228,7 @@
         <v>43790</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3285,7 +3285,7 @@
         <v>43794</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3347,7 +3347,7 @@
         <v>43797</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3404,7 +3404,7 @@
         <v>43809</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3461,7 +3461,7 @@
         <v>43859</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3523,7 +3523,7 @@
         <v>43859</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3585,7 +3585,7 @@
         <v>43864</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3647,7 +3647,7 @@
         <v>43865</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3704,7 +3704,7 @@
         <v>43885</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3761,7 +3761,7 @@
         <v>43892</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3818,7 +3818,7 @@
         <v>43896</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3875,7 +3875,7 @@
         <v>43955</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3932,7 +3932,7 @@
         <v>43955</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3989,7 +3989,7 @@
         <v>43963</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4046,7 +4046,7 @@
         <v>43997</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4103,7 +4103,7 @@
         <v>43997</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4160,7 +4160,7 @@
         <v>44004</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4217,7 +4217,7 @@
         <v>44062</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4274,7 +4274,7 @@
         <v>44067</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4336,7 +4336,7 @@
         <v>44069</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4393,7 +4393,7 @@
         <v>44088</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4450,7 +4450,7 @@
         <v>44088</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4507,7 +4507,7 @@
         <v>44088</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4564,7 +4564,7 @@
         <v>44088</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4621,7 +4621,7 @@
         <v>44088</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4678,7 +4678,7 @@
         <v>44088</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4735,7 +4735,7 @@
         <v>44088</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4792,7 +4792,7 @@
         <v>44088</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4849,7 +4849,7 @@
         <v>44088</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4906,7 +4906,7 @@
         <v>44097</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4968,7 +4968,7 @@
         <v>44097</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5030,7 +5030,7 @@
         <v>44102</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5087,7 +5087,7 @@
         <v>44102</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5144,7 +5144,7 @@
         <v>44102</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5201,7 +5201,7 @@
         <v>44102</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5258,7 +5258,7 @@
         <v>44132</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5320,7 +5320,7 @@
         <v>44132</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5377,7 +5377,7 @@
         <v>44132</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5434,7 +5434,7 @@
         <v>44133</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5491,7 +5491,7 @@
         <v>44151</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5548,7 +5548,7 @@
         <v>44238</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5610,7 +5610,7 @@
         <v>44238</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5672,7 +5672,7 @@
         <v>44238</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5729,7 +5729,7 @@
         <v>44249</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5791,7 +5791,7 @@
         <v>44249</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5853,7 +5853,7 @@
         <v>44249</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5915,7 +5915,7 @@
         <v>44266</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5977,7 +5977,7 @@
         <v>44285</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6034,7 +6034,7 @@
         <v>44285</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6091,7 +6091,7 @@
         <v>44293</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6148,7 +6148,7 @@
         <v>44418</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6205,7 +6205,7 @@
         <v>44480</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6262,7 +6262,7 @@
         <v>44489</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6324,7 +6324,7 @@
         <v>44490</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6386,7 +6386,7 @@
         <v>44526</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6448,7 +6448,7 @@
         <v>44530</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6510,7 +6510,7 @@
         <v>44533</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6567,7 +6567,7 @@
         <v>44544</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6629,7 +6629,7 @@
         <v>44582</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6691,7 +6691,7 @@
         <v>44582</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6753,7 +6753,7 @@
         <v>44599</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6810,7 +6810,7 @@
         <v>44599</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6867,7 +6867,7 @@
         <v>44599</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6929,7 +6929,7 @@
         <v>44662</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6986,7 +6986,7 @@
         <v>44680</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7043,7 +7043,7 @@
         <v>44721</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7100,7 +7100,7 @@
         <v>44733</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7157,7 +7157,7 @@
         <v>44756</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7214,7 +7214,7 @@
         <v>44756</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7271,7 +7271,7 @@
         <v>44840</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7328,7 +7328,7 @@
         <v>44852</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7385,7 +7385,7 @@
         <v>44889</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7447,7 +7447,7 @@
         <v>44916</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7509,7 +7509,7 @@
         <v>44916</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7571,7 +7571,7 @@
         <v>44916</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7633,7 +7633,7 @@
         <v>44916</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7695,7 +7695,7 @@
         <v>44937</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7752,7 +7752,7 @@
         <v>44951</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7809,7 +7809,7 @@
         <v>44986</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7871,7 +7871,7 @@
         <v>45005</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7933,7 +7933,7 @@
         <v>45005</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7995,7 +7995,7 @@
         <v>45007</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8057,7 +8057,7 @@
         <v>45007</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8119,7 +8119,7 @@
         <v>45007</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8181,7 +8181,7 @@
         <v>45007</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8243,7 +8243,7 @@
         <v>45007</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8305,7 +8305,7 @@
         <v>45007</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8367,7 +8367,7 @@
         <v>45016</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8429,7 +8429,7 @@
         <v>45016</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8491,7 +8491,7 @@
         <v>45016</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8553,7 +8553,7 @@
         <v>45016</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8615,7 +8615,7 @@
         <v>45016</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8677,7 +8677,7 @@
         <v>45019</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8739,7 +8739,7 @@
         <v>45027</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8801,7 +8801,7 @@
         <v>45027</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8863,7 +8863,7 @@
         <v>45040</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8920,7 +8920,7 @@
         <v>45040</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>

--- a/Översikt TROSA.xlsx
+++ b/Översikt TROSA.xlsx
@@ -572,7 +572,7 @@
         <v>43917</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -684,7 +684,7 @@
         <v>43704</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -787,7 +787,7 @@
         <v>43497</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -875,7 +875,7 @@
         <v>44088</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -962,7 +962,7 @@
         <v>43700</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1057,7 +1057,7 @@
         <v>43781</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1143,7 +1143,7 @@
         <v>44069</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1229,7 +1229,7 @@
         <v>44649</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1320,7 +1320,7 @@
         <v>43958</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1405,7 +1405,7 @@
         <v>43997</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1490,7 +1490,7 @@
         <v>44040</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1575,7 +1575,7 @@
         <v>44062</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1660,7 +1660,7 @@
         <v>44132</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1750,7 +1750,7 @@
         <v>44403</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1844,7 +1844,7 @@
         <v>44505</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1934,7 +1934,7 @@
         <v>43395</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1996,7 +1996,7 @@
         <v>43410</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2053,7 +2053,7 @@
         <v>43410</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2110,7 +2110,7 @@
         <v>43448</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2167,7 +2167,7 @@
         <v>43448</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2224,7 +2224,7 @@
         <v>43469</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2286,7 +2286,7 @@
         <v>43489</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2348,7 +2348,7 @@
         <v>43489</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2405,7 +2405,7 @@
         <v>43489</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2462,7 +2462,7 @@
         <v>43490</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2519,7 +2519,7 @@
         <v>43517</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2576,7 +2576,7 @@
         <v>43540</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2633,7 +2633,7 @@
         <v>43643</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2690,7 +2690,7 @@
         <v>43650</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2747,7 +2747,7 @@
         <v>43684</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2804,7 +2804,7 @@
         <v>43700</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2861,7 +2861,7 @@
         <v>43700</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2923,7 +2923,7 @@
         <v>43700</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2985,7 +2985,7 @@
         <v>43700</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3047,7 +3047,7 @@
         <v>43704</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3109,7 +3109,7 @@
         <v>43732</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3171,7 +3171,7 @@
         <v>43745</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3228,7 +3228,7 @@
         <v>43790</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3285,7 +3285,7 @@
         <v>43794</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3347,7 +3347,7 @@
         <v>43797</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3404,7 +3404,7 @@
         <v>43809</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3461,7 +3461,7 @@
         <v>43859</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3523,7 +3523,7 @@
         <v>43859</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3585,7 +3585,7 @@
         <v>43864</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3647,7 +3647,7 @@
         <v>43865</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3704,7 +3704,7 @@
         <v>43885</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3761,7 +3761,7 @@
         <v>43892</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3818,7 +3818,7 @@
         <v>43896</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3875,7 +3875,7 @@
         <v>43955</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3932,7 +3932,7 @@
         <v>43955</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3989,7 +3989,7 @@
         <v>43963</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4046,7 +4046,7 @@
         <v>43997</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4103,7 +4103,7 @@
         <v>43997</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4160,7 +4160,7 @@
         <v>44004</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4217,7 +4217,7 @@
         <v>44062</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4274,7 +4274,7 @@
         <v>44067</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4336,7 +4336,7 @@
         <v>44069</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4393,7 +4393,7 @@
         <v>44088</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4450,7 +4450,7 @@
         <v>44088</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4507,7 +4507,7 @@
         <v>44088</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4564,7 +4564,7 @@
         <v>44088</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4621,7 +4621,7 @@
         <v>44088</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4678,7 +4678,7 @@
         <v>44088</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4735,7 +4735,7 @@
         <v>44088</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4792,7 +4792,7 @@
         <v>44088</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4849,7 +4849,7 @@
         <v>44088</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4906,7 +4906,7 @@
         <v>44097</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4968,7 +4968,7 @@
         <v>44097</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5030,7 +5030,7 @@
         <v>44102</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5087,7 +5087,7 @@
         <v>44102</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5144,7 +5144,7 @@
         <v>44102</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5201,7 +5201,7 @@
         <v>44102</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5258,7 +5258,7 @@
         <v>44132</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5320,7 +5320,7 @@
         <v>44132</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5377,7 +5377,7 @@
         <v>44132</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5434,7 +5434,7 @@
         <v>44133</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5491,7 +5491,7 @@
         <v>44151</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5548,7 +5548,7 @@
         <v>44238</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5610,7 +5610,7 @@
         <v>44238</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5672,7 +5672,7 @@
         <v>44238</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5729,7 +5729,7 @@
         <v>44249</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5791,7 +5791,7 @@
         <v>44249</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5853,7 +5853,7 @@
         <v>44249</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5915,7 +5915,7 @@
         <v>44266</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5977,7 +5977,7 @@
         <v>44285</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6034,7 +6034,7 @@
         <v>44285</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6091,7 +6091,7 @@
         <v>44293</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6148,7 +6148,7 @@
         <v>44418</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6205,7 +6205,7 @@
         <v>44480</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6262,7 +6262,7 @@
         <v>44489</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6324,7 +6324,7 @@
         <v>44490</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6386,7 +6386,7 @@
         <v>44526</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6448,7 +6448,7 @@
         <v>44530</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6510,7 +6510,7 @@
         <v>44533</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6567,7 +6567,7 @@
         <v>44544</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6629,7 +6629,7 @@
         <v>44582</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6691,7 +6691,7 @@
         <v>44582</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6753,7 +6753,7 @@
         <v>44599</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6810,7 +6810,7 @@
         <v>44599</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6867,7 +6867,7 @@
         <v>44599</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6929,7 +6929,7 @@
         <v>44662</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6986,7 +6986,7 @@
         <v>44680</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7043,7 +7043,7 @@
         <v>44721</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7100,7 +7100,7 @@
         <v>44733</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7157,7 +7157,7 @@
         <v>44756</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7214,7 +7214,7 @@
         <v>44756</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7271,7 +7271,7 @@
         <v>44840</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7328,7 +7328,7 @@
         <v>44852</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7385,7 +7385,7 @@
         <v>44889</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7447,7 +7447,7 @@
         <v>44916</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7509,7 +7509,7 @@
         <v>44916</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7571,7 +7571,7 @@
         <v>44916</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7633,7 +7633,7 @@
         <v>44916</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7695,7 +7695,7 @@
         <v>44937</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7752,7 +7752,7 @@
         <v>44951</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7809,7 +7809,7 @@
         <v>44986</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7871,7 +7871,7 @@
         <v>45005</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7933,7 +7933,7 @@
         <v>45005</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7995,7 +7995,7 @@
         <v>45007</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8057,7 +8057,7 @@
         <v>45007</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8119,7 +8119,7 @@
         <v>45007</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8181,7 +8181,7 @@
         <v>45007</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8243,7 +8243,7 @@
         <v>45007</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8305,7 +8305,7 @@
         <v>45007</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8367,7 +8367,7 @@
         <v>45016</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8429,7 +8429,7 @@
         <v>45016</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8491,7 +8491,7 @@
         <v>45016</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8553,7 +8553,7 @@
         <v>45016</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8615,7 +8615,7 @@
         <v>45016</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8677,7 +8677,7 @@
         <v>45019</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8739,7 +8739,7 @@
         <v>45027</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8801,7 +8801,7 @@
         <v>45027</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8863,7 +8863,7 @@
         <v>45040</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8920,7 +8920,7 @@
         <v>45040</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>

--- a/Översikt TROSA.xlsx
+++ b/Översikt TROSA.xlsx
@@ -572,7 +572,7 @@
         <v>43917</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -646,31 +646,31 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TROSA/artfynd/A 16314-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TROSA/artfynd/A 16314-2020.xlsx", "A 16314-2020")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TROSA/kartor/A 16314-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TROSA/kartor/A 16314-2020.png", "A 16314-2020")</f>
         <v/>
       </c>
       <c r="U2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TROSA/knärot/A 16314-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TROSA/knärot/A 16314-2020.png", "A 16314-2020")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TROSA/klagomål/A 16314-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TROSA/klagomål/A 16314-2020.docx", "A 16314-2020")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TROSA/klagomålsmail/A 16314-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TROSA/klagomålsmail/A 16314-2020.docx", "A 16314-2020")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TROSA/tillsyn/A 16314-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TROSA/tillsyn/A 16314-2020.docx", "A 16314-2020")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TROSA/tillsynsmail/A 16314-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TROSA/tillsynsmail/A 16314-2020.docx", "A 16314-2020")</f>
         <v/>
       </c>
     </row>
@@ -684,7 +684,7 @@
         <v>43704</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -749,31 +749,31 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TROSA/artfynd/A 42503-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TROSA/artfynd/A 42503-2019.xlsx", "A 42503-2019")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TROSA/kartor/A 42503-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TROSA/kartor/A 42503-2019.png", "A 42503-2019")</f>
         <v/>
       </c>
       <c r="U3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TROSA/knärot/A 42503-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TROSA/knärot/A 42503-2019.png", "A 42503-2019")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TROSA/klagomål/A 42503-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TROSA/klagomål/A 42503-2019.docx", "A 42503-2019")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TROSA/klagomålsmail/A 42503-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TROSA/klagomålsmail/A 42503-2019.docx", "A 42503-2019")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TROSA/tillsyn/A 42503-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TROSA/tillsyn/A 42503-2019.docx", "A 42503-2019")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TROSA/tillsynsmail/A 42503-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TROSA/tillsynsmail/A 42503-2019.docx", "A 42503-2019")</f>
         <v/>
       </c>
     </row>
@@ -787,7 +787,7 @@
         <v>43497</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -841,27 +841,27 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TROSA/artfynd/A 7732-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TROSA/artfynd/A 7732-2019.xlsx", "A 7732-2019")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TROSA/kartor/A 7732-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TROSA/kartor/A 7732-2019.png", "A 7732-2019")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TROSA/klagomål/A 7732-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TROSA/klagomål/A 7732-2019.docx", "A 7732-2019")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TROSA/klagomålsmail/A 7732-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TROSA/klagomålsmail/A 7732-2019.docx", "A 7732-2019")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TROSA/tillsyn/A 7732-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TROSA/tillsyn/A 7732-2019.docx", "A 7732-2019")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TROSA/tillsynsmail/A 7732-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TROSA/tillsynsmail/A 7732-2019.docx", "A 7732-2019")</f>
         <v/>
       </c>
     </row>
@@ -875,7 +875,7 @@
         <v>44088</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -928,27 +928,27 @@
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TROSA/artfynd/A 45296-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TROSA/artfynd/A 45296-2020.xlsx", "A 45296-2020")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TROSA/kartor/A 45296-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TROSA/kartor/A 45296-2020.png", "A 45296-2020")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TROSA/klagomål/A 45296-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TROSA/klagomål/A 45296-2020.docx", "A 45296-2020")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TROSA/klagomålsmail/A 45296-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TROSA/klagomålsmail/A 45296-2020.docx", "A 45296-2020")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TROSA/tillsyn/A 45296-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TROSA/tillsyn/A 45296-2020.docx", "A 45296-2020")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TROSA/tillsynsmail/A 45296-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TROSA/tillsynsmail/A 45296-2020.docx", "A 45296-2020")</f>
         <v/>
       </c>
     </row>
@@ -962,7 +962,7 @@
         <v>43700</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1019,31 +1019,31 @@
         </is>
       </c>
       <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TROSA/artfynd/A 41919-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TROSA/artfynd/A 41919-2019.xlsx", "A 41919-2019")</f>
         <v/>
       </c>
       <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TROSA/kartor/A 41919-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TROSA/kartor/A 41919-2019.png", "A 41919-2019")</f>
         <v/>
       </c>
       <c r="U6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TROSA/knärot/A 41919-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TROSA/knärot/A 41919-2019.png", "A 41919-2019")</f>
         <v/>
       </c>
       <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TROSA/klagomål/A 41919-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TROSA/klagomål/A 41919-2019.docx", "A 41919-2019")</f>
         <v/>
       </c>
       <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TROSA/klagomålsmail/A 41919-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TROSA/klagomålsmail/A 41919-2019.docx", "A 41919-2019")</f>
         <v/>
       </c>
       <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TROSA/tillsyn/A 41919-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TROSA/tillsyn/A 41919-2019.docx", "A 41919-2019")</f>
         <v/>
       </c>
       <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TROSA/tillsynsmail/A 41919-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TROSA/tillsynsmail/A 41919-2019.docx", "A 41919-2019")</f>
         <v/>
       </c>
     </row>
@@ -1057,7 +1057,7 @@
         <v>43781</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1109,27 +1109,27 @@
         </is>
       </c>
       <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TROSA/artfynd/A 60748-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TROSA/artfynd/A 60748-2019.xlsx", "A 60748-2019")</f>
         <v/>
       </c>
       <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TROSA/kartor/A 60748-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TROSA/kartor/A 60748-2019.png", "A 60748-2019")</f>
         <v/>
       </c>
       <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TROSA/klagomål/A 60748-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TROSA/klagomål/A 60748-2019.docx", "A 60748-2019")</f>
         <v/>
       </c>
       <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TROSA/klagomålsmail/A 60748-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TROSA/klagomålsmail/A 60748-2019.docx", "A 60748-2019")</f>
         <v/>
       </c>
       <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TROSA/tillsyn/A 60748-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TROSA/tillsyn/A 60748-2019.docx", "A 60748-2019")</f>
         <v/>
       </c>
       <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TROSA/tillsynsmail/A 60748-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TROSA/tillsynsmail/A 60748-2019.docx", "A 60748-2019")</f>
         <v/>
       </c>
     </row>
@@ -1143,7 +1143,7 @@
         <v>44069</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1195,27 +1195,27 @@
         </is>
       </c>
       <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TROSA/artfynd/A 40489-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TROSA/artfynd/A 40489-2020.xlsx", "A 40489-2020")</f>
         <v/>
       </c>
       <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TROSA/kartor/A 40489-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TROSA/kartor/A 40489-2020.png", "A 40489-2020")</f>
         <v/>
       </c>
       <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TROSA/klagomål/A 40489-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TROSA/klagomål/A 40489-2020.docx", "A 40489-2020")</f>
         <v/>
       </c>
       <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TROSA/klagomålsmail/A 40489-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TROSA/klagomålsmail/A 40489-2020.docx", "A 40489-2020")</f>
         <v/>
       </c>
       <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TROSA/tillsyn/A 40489-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TROSA/tillsyn/A 40489-2020.docx", "A 40489-2020")</f>
         <v/>
       </c>
       <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TROSA/tillsynsmail/A 40489-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TROSA/tillsynsmail/A 40489-2020.docx", "A 40489-2020")</f>
         <v/>
       </c>
     </row>
@@ -1229,7 +1229,7 @@
         <v>44649</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1286,27 +1286,27 @@
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TROSA/artfynd/A 13760-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TROSA/artfynd/A 13760-2022.xlsx", "A 13760-2022")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TROSA/kartor/A 13760-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TROSA/kartor/A 13760-2022.png", "A 13760-2022")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TROSA/klagomål/A 13760-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TROSA/klagomål/A 13760-2022.docx", "A 13760-2022")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TROSA/klagomålsmail/A 13760-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TROSA/klagomålsmail/A 13760-2022.docx", "A 13760-2022")</f>
         <v/>
       </c>
       <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TROSA/tillsyn/A 13760-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TROSA/tillsyn/A 13760-2022.docx", "A 13760-2022")</f>
         <v/>
       </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TROSA/tillsynsmail/A 13760-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TROSA/tillsynsmail/A 13760-2022.docx", "A 13760-2022")</f>
         <v/>
       </c>
     </row>
@@ -1320,7 +1320,7 @@
         <v>43958</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1371,27 +1371,27 @@
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TROSA/artfynd/A 21940-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TROSA/artfynd/A 21940-2020.xlsx", "A 21940-2020")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TROSA/kartor/A 21940-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TROSA/kartor/A 21940-2020.png", "A 21940-2020")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TROSA/klagomål/A 21940-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TROSA/klagomål/A 21940-2020.docx", "A 21940-2020")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TROSA/klagomålsmail/A 21940-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TROSA/klagomålsmail/A 21940-2020.docx", "A 21940-2020")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TROSA/tillsyn/A 21940-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TROSA/tillsyn/A 21940-2020.docx", "A 21940-2020")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TROSA/tillsynsmail/A 21940-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TROSA/tillsynsmail/A 21940-2020.docx", "A 21940-2020")</f>
         <v/>
       </c>
     </row>
@@ -1405,7 +1405,7 @@
         <v>43997</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1456,27 +1456,27 @@
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TROSA/artfynd/A 28149-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TROSA/artfynd/A 28149-2020.xlsx", "A 28149-2020")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TROSA/kartor/A 28149-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TROSA/kartor/A 28149-2020.png", "A 28149-2020")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TROSA/klagomål/A 28149-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TROSA/klagomål/A 28149-2020.docx", "A 28149-2020")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TROSA/klagomålsmail/A 28149-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TROSA/klagomålsmail/A 28149-2020.docx", "A 28149-2020")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TROSA/tillsyn/A 28149-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TROSA/tillsyn/A 28149-2020.docx", "A 28149-2020")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TROSA/tillsynsmail/A 28149-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TROSA/tillsynsmail/A 28149-2020.docx", "A 28149-2020")</f>
         <v/>
       </c>
     </row>
@@ -1490,7 +1490,7 @@
         <v>44040</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1541,27 +1541,27 @@
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TROSA/artfynd/A 35106-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TROSA/artfynd/A 35106-2020.xlsx", "A 35106-2020")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TROSA/kartor/A 35106-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TROSA/kartor/A 35106-2020.png", "A 35106-2020")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TROSA/klagomål/A 35106-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TROSA/klagomål/A 35106-2020.docx", "A 35106-2020")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TROSA/klagomålsmail/A 35106-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TROSA/klagomålsmail/A 35106-2020.docx", "A 35106-2020")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TROSA/tillsyn/A 35106-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TROSA/tillsyn/A 35106-2020.docx", "A 35106-2020")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TROSA/tillsynsmail/A 35106-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TROSA/tillsynsmail/A 35106-2020.docx", "A 35106-2020")</f>
         <v/>
       </c>
     </row>
@@ -1575,7 +1575,7 @@
         <v>44062</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1626,27 +1626,27 @@
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TROSA/artfynd/A 38880-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TROSA/artfynd/A 38880-2020.xlsx", "A 38880-2020")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TROSA/kartor/A 38880-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TROSA/kartor/A 38880-2020.png", "A 38880-2020")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TROSA/klagomål/A 38880-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TROSA/klagomål/A 38880-2020.docx", "A 38880-2020")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TROSA/klagomålsmail/A 38880-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TROSA/klagomålsmail/A 38880-2020.docx", "A 38880-2020")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TROSA/tillsyn/A 38880-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TROSA/tillsyn/A 38880-2020.docx", "A 38880-2020")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TROSA/tillsynsmail/A 38880-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TROSA/tillsynsmail/A 38880-2020.docx", "A 38880-2020")</f>
         <v/>
       </c>
     </row>
@@ -1660,7 +1660,7 @@
         <v>44132</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1716,27 +1716,27 @@
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TROSA/artfynd/A 55760-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TROSA/artfynd/A 55760-2020.xlsx", "A 55760-2020")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TROSA/kartor/A 55760-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TROSA/kartor/A 55760-2020.png", "A 55760-2020")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TROSA/klagomål/A 55760-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TROSA/klagomål/A 55760-2020.docx", "A 55760-2020")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TROSA/klagomålsmail/A 55760-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TROSA/klagomålsmail/A 55760-2020.docx", "A 55760-2020")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TROSA/tillsyn/A 55760-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TROSA/tillsyn/A 55760-2020.docx", "A 55760-2020")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TROSA/tillsynsmail/A 55760-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TROSA/tillsynsmail/A 55760-2020.docx", "A 55760-2020")</f>
         <v/>
       </c>
     </row>
@@ -1750,7 +1750,7 @@
         <v>44403</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1806,31 +1806,31 @@
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TROSA/artfynd/A 37836-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TROSA/artfynd/A 37836-2021.xlsx", "A 37836-2021")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TROSA/kartor/A 37836-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TROSA/kartor/A 37836-2021.png", "A 37836-2021")</f>
         <v/>
       </c>
       <c r="U15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TROSA/knärot/A 37836-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TROSA/knärot/A 37836-2021.png", "A 37836-2021")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TROSA/klagomål/A 37836-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TROSA/klagomål/A 37836-2021.docx", "A 37836-2021")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TROSA/klagomålsmail/A 37836-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TROSA/klagomålsmail/A 37836-2021.docx", "A 37836-2021")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TROSA/tillsyn/A 37836-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TROSA/tillsyn/A 37836-2021.docx", "A 37836-2021")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TROSA/tillsynsmail/A 37836-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TROSA/tillsynsmail/A 37836-2021.docx", "A 37836-2021")</f>
         <v/>
       </c>
     </row>
@@ -1844,7 +1844,7 @@
         <v>44505</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1900,27 +1900,27 @@
         </is>
       </c>
       <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TROSA/artfynd/A 63029-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TROSA/artfynd/A 63029-2021.xlsx", "A 63029-2021")</f>
         <v/>
       </c>
       <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TROSA/kartor/A 63029-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TROSA/kartor/A 63029-2021.png", "A 63029-2021")</f>
         <v/>
       </c>
       <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TROSA/klagomål/A 63029-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TROSA/klagomål/A 63029-2021.docx", "A 63029-2021")</f>
         <v/>
       </c>
       <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TROSA/klagomålsmail/A 63029-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TROSA/klagomålsmail/A 63029-2021.docx", "A 63029-2021")</f>
         <v/>
       </c>
       <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TROSA/tillsyn/A 63029-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TROSA/tillsyn/A 63029-2021.docx", "A 63029-2021")</f>
         <v/>
       </c>
       <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TROSA/tillsynsmail/A 63029-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TROSA/tillsynsmail/A 63029-2021.docx", "A 63029-2021")</f>
         <v/>
       </c>
     </row>
@@ -1934,7 +1934,7 @@
         <v>43395</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1996,7 +1996,7 @@
         <v>43410</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2053,7 +2053,7 @@
         <v>43410</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2110,7 +2110,7 @@
         <v>43448</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2167,7 +2167,7 @@
         <v>43448</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2224,7 +2224,7 @@
         <v>43469</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2286,7 +2286,7 @@
         <v>43489</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2348,7 +2348,7 @@
         <v>43489</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2405,7 +2405,7 @@
         <v>43489</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2462,7 +2462,7 @@
         <v>43490</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2519,7 +2519,7 @@
         <v>43517</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2576,7 +2576,7 @@
         <v>43540</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2633,7 +2633,7 @@
         <v>43643</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2690,7 +2690,7 @@
         <v>43650</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2747,7 +2747,7 @@
         <v>43684</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2804,7 +2804,7 @@
         <v>43700</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2861,7 +2861,7 @@
         <v>43700</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2923,7 +2923,7 @@
         <v>43700</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2985,7 +2985,7 @@
         <v>43700</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3047,7 +3047,7 @@
         <v>43704</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3109,7 +3109,7 @@
         <v>43732</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3171,7 +3171,7 @@
         <v>43745</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3228,7 +3228,7 @@
         <v>43790</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3285,7 +3285,7 @@
         <v>43794</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3347,7 +3347,7 @@
         <v>43797</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3404,7 +3404,7 @@
         <v>43809</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3461,7 +3461,7 @@
         <v>43859</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3523,7 +3523,7 @@
         <v>43859</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3585,7 +3585,7 @@
         <v>43864</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3647,7 +3647,7 @@
         <v>43865</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3704,7 +3704,7 @@
         <v>43885</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3761,7 +3761,7 @@
         <v>43892</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3818,7 +3818,7 @@
         <v>43896</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3875,7 +3875,7 @@
         <v>43955</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3932,7 +3932,7 @@
         <v>43955</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3989,7 +3989,7 @@
         <v>43963</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4046,7 +4046,7 @@
         <v>43997</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4103,7 +4103,7 @@
         <v>43997</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4160,7 +4160,7 @@
         <v>44004</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4217,7 +4217,7 @@
         <v>44062</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4274,7 +4274,7 @@
         <v>44067</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4336,7 +4336,7 @@
         <v>44069</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4393,7 +4393,7 @@
         <v>44088</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4450,7 +4450,7 @@
         <v>44088</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4507,7 +4507,7 @@
         <v>44088</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4564,7 +4564,7 @@
         <v>44088</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4621,7 +4621,7 @@
         <v>44088</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4678,7 +4678,7 @@
         <v>44088</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4735,7 +4735,7 @@
         <v>44088</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4792,7 +4792,7 @@
         <v>44088</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4849,7 +4849,7 @@
         <v>44088</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4906,7 +4906,7 @@
         <v>44097</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4968,7 +4968,7 @@
         <v>44097</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5030,7 +5030,7 @@
         <v>44102</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5087,7 +5087,7 @@
         <v>44102</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5144,7 +5144,7 @@
         <v>44102</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5201,7 +5201,7 @@
         <v>44102</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5258,7 +5258,7 @@
         <v>44132</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5320,7 +5320,7 @@
         <v>44132</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5377,7 +5377,7 @@
         <v>44132</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5434,7 +5434,7 @@
         <v>44133</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5491,7 +5491,7 @@
         <v>44151</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5548,7 +5548,7 @@
         <v>44238</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5610,7 +5610,7 @@
         <v>44238</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5672,7 +5672,7 @@
         <v>44238</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5729,7 +5729,7 @@
         <v>44249</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5791,7 +5791,7 @@
         <v>44249</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5853,7 +5853,7 @@
         <v>44249</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5915,7 +5915,7 @@
         <v>44266</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5977,7 +5977,7 @@
         <v>44285</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6034,7 +6034,7 @@
         <v>44285</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6091,7 +6091,7 @@
         <v>44293</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6148,7 +6148,7 @@
         <v>44418</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6205,7 +6205,7 @@
         <v>44480</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6262,7 +6262,7 @@
         <v>44489</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6324,7 +6324,7 @@
         <v>44490</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6386,7 +6386,7 @@
         <v>44526</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6448,7 +6448,7 @@
         <v>44530</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6510,7 +6510,7 @@
         <v>44533</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6567,7 +6567,7 @@
         <v>44544</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6629,7 +6629,7 @@
         <v>44582</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6691,7 +6691,7 @@
         <v>44582</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6753,7 +6753,7 @@
         <v>44599</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6810,7 +6810,7 @@
         <v>44599</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6867,7 +6867,7 @@
         <v>44599</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6929,7 +6929,7 @@
         <v>44662</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6986,7 +6986,7 @@
         <v>44680</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7043,7 +7043,7 @@
         <v>44721</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7100,7 +7100,7 @@
         <v>44733</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7157,7 +7157,7 @@
         <v>44756</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7214,7 +7214,7 @@
         <v>44756</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7271,7 +7271,7 @@
         <v>44840</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7328,7 +7328,7 @@
         <v>44852</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7385,7 +7385,7 @@
         <v>44889</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7447,7 +7447,7 @@
         <v>44916</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7509,7 +7509,7 @@
         <v>44916</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7571,7 +7571,7 @@
         <v>44916</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7633,7 +7633,7 @@
         <v>44916</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7695,7 +7695,7 @@
         <v>44937</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7752,7 +7752,7 @@
         <v>44951</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7809,7 +7809,7 @@
         <v>44986</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7871,7 +7871,7 @@
         <v>45005</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7933,7 +7933,7 @@
         <v>45005</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7995,7 +7995,7 @@
         <v>45007</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8057,7 +8057,7 @@
         <v>45007</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8119,7 +8119,7 @@
         <v>45007</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8181,7 +8181,7 @@
         <v>45007</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8243,7 +8243,7 @@
         <v>45007</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8305,7 +8305,7 @@
         <v>45007</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8367,7 +8367,7 @@
         <v>45016</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8429,7 +8429,7 @@
         <v>45016</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8491,7 +8491,7 @@
         <v>45016</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8553,7 +8553,7 @@
         <v>45016</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8615,7 +8615,7 @@
         <v>45016</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8677,7 +8677,7 @@
         <v>45019</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8739,7 +8739,7 @@
         <v>45027</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8801,7 +8801,7 @@
         <v>45027</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8863,7 +8863,7 @@
         <v>45040</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8920,7 +8920,7 @@
         <v>45040</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>

--- a/Översikt TROSA.xlsx
+++ b/Översikt TROSA.xlsx
@@ -572,7 +572,7 @@
         <v>43917</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -684,7 +684,7 @@
         <v>43704</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -787,7 +787,7 @@
         <v>43497</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -875,7 +875,7 @@
         <v>44088</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -962,7 +962,7 @@
         <v>43700</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1057,7 +1057,7 @@
         <v>43781</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1143,7 +1143,7 @@
         <v>44069</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1229,7 +1229,7 @@
         <v>44649</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1320,7 +1320,7 @@
         <v>43958</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1405,7 +1405,7 @@
         <v>43997</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1490,7 +1490,7 @@
         <v>44040</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1575,7 +1575,7 @@
         <v>44062</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1660,7 +1660,7 @@
         <v>44132</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1750,7 +1750,7 @@
         <v>44403</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1844,7 +1844,7 @@
         <v>44505</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1934,7 +1934,7 @@
         <v>43395</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1996,7 +1996,7 @@
         <v>43410</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2053,7 +2053,7 @@
         <v>43410</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2110,7 +2110,7 @@
         <v>43448</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2167,7 +2167,7 @@
         <v>43448</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2224,7 +2224,7 @@
         <v>43469</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2286,7 +2286,7 @@
         <v>43489</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2348,7 +2348,7 @@
         <v>43489</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2405,7 +2405,7 @@
         <v>43489</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2462,7 +2462,7 @@
         <v>43490</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2519,7 +2519,7 @@
         <v>43517</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2576,7 +2576,7 @@
         <v>43540</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2633,7 +2633,7 @@
         <v>43643</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2690,7 +2690,7 @@
         <v>43650</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2747,7 +2747,7 @@
         <v>43684</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2804,7 +2804,7 @@
         <v>43700</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2861,7 +2861,7 @@
         <v>43700</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2923,7 +2923,7 @@
         <v>43700</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2985,7 +2985,7 @@
         <v>43700</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3047,7 +3047,7 @@
         <v>43704</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3109,7 +3109,7 @@
         <v>43732</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3171,7 +3171,7 @@
         <v>43745</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3228,7 +3228,7 @@
         <v>43790</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3285,7 +3285,7 @@
         <v>43794</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3347,7 +3347,7 @@
         <v>43797</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3404,7 +3404,7 @@
         <v>43809</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3461,7 +3461,7 @@
         <v>43859</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3523,7 +3523,7 @@
         <v>43859</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3585,7 +3585,7 @@
         <v>43864</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3647,7 +3647,7 @@
         <v>43865</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3704,7 +3704,7 @@
         <v>43885</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3761,7 +3761,7 @@
         <v>43892</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3818,7 +3818,7 @@
         <v>43896</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3875,7 +3875,7 @@
         <v>43955</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3932,7 +3932,7 @@
         <v>43955</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3989,7 +3989,7 @@
         <v>43963</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4046,7 +4046,7 @@
         <v>43997</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4103,7 +4103,7 @@
         <v>43997</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4160,7 +4160,7 @@
         <v>44004</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4217,7 +4217,7 @@
         <v>44062</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4274,7 +4274,7 @@
         <v>44067</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4336,7 +4336,7 @@
         <v>44069</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4393,7 +4393,7 @@
         <v>44088</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4450,7 +4450,7 @@
         <v>44088</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4507,7 +4507,7 @@
         <v>44088</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4564,7 +4564,7 @@
         <v>44088</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4621,7 +4621,7 @@
         <v>44088</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4678,7 +4678,7 @@
         <v>44088</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4735,7 +4735,7 @@
         <v>44088</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4792,7 +4792,7 @@
         <v>44088</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4849,7 +4849,7 @@
         <v>44088</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4906,7 +4906,7 @@
         <v>44097</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4968,7 +4968,7 @@
         <v>44097</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5030,7 +5030,7 @@
         <v>44102</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5087,7 +5087,7 @@
         <v>44102</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5144,7 +5144,7 @@
         <v>44102</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5201,7 +5201,7 @@
         <v>44102</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5258,7 +5258,7 @@
         <v>44132</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5320,7 +5320,7 @@
         <v>44132</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5377,7 +5377,7 @@
         <v>44132</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5434,7 +5434,7 @@
         <v>44133</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5491,7 +5491,7 @@
         <v>44151</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5548,7 +5548,7 @@
         <v>44238</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5610,7 +5610,7 @@
         <v>44238</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5672,7 +5672,7 @@
         <v>44238</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5729,7 +5729,7 @@
         <v>44249</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5791,7 +5791,7 @@
         <v>44249</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5853,7 +5853,7 @@
         <v>44249</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5915,7 +5915,7 @@
         <v>44266</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5977,7 +5977,7 @@
         <v>44285</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6034,7 +6034,7 @@
         <v>44285</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6091,7 +6091,7 @@
         <v>44293</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6148,7 +6148,7 @@
         <v>44418</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6205,7 +6205,7 @@
         <v>44480</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6262,7 +6262,7 @@
         <v>44489</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6324,7 +6324,7 @@
         <v>44490</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6386,7 +6386,7 @@
         <v>44526</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6448,7 +6448,7 @@
         <v>44530</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6510,7 +6510,7 @@
         <v>44533</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6567,7 +6567,7 @@
         <v>44544</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6629,7 +6629,7 @@
         <v>44582</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6691,7 +6691,7 @@
         <v>44582</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6753,7 +6753,7 @@
         <v>44599</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6810,7 +6810,7 @@
         <v>44599</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6867,7 +6867,7 @@
         <v>44599</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6929,7 +6929,7 @@
         <v>44662</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6986,7 +6986,7 @@
         <v>44680</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7043,7 +7043,7 @@
         <v>44721</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7100,7 +7100,7 @@
         <v>44733</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7157,7 +7157,7 @@
         <v>44756</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7214,7 +7214,7 @@
         <v>44756</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7271,7 +7271,7 @@
         <v>44840</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7328,7 +7328,7 @@
         <v>44852</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7385,7 +7385,7 @@
         <v>44889</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7447,7 +7447,7 @@
         <v>44916</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7509,7 +7509,7 @@
         <v>44916</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7571,7 +7571,7 @@
         <v>44916</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7633,7 +7633,7 @@
         <v>44916</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7695,7 +7695,7 @@
         <v>44937</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7752,7 +7752,7 @@
         <v>44951</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7809,7 +7809,7 @@
         <v>44986</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7871,7 +7871,7 @@
         <v>45005</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7933,7 +7933,7 @@
         <v>45005</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7995,7 +7995,7 @@
         <v>45007</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8057,7 +8057,7 @@
         <v>45007</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8119,7 +8119,7 @@
         <v>45007</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8181,7 +8181,7 @@
         <v>45007</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8243,7 +8243,7 @@
         <v>45007</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8305,7 +8305,7 @@
         <v>45007</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8367,7 +8367,7 @@
         <v>45016</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8429,7 +8429,7 @@
         <v>45016</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8491,7 +8491,7 @@
         <v>45016</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8553,7 +8553,7 @@
         <v>45016</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8615,7 +8615,7 @@
         <v>45016</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8677,7 +8677,7 @@
         <v>45019</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8739,7 +8739,7 @@
         <v>45027</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8801,7 +8801,7 @@
         <v>45027</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8863,7 +8863,7 @@
         <v>45040</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8920,7 +8920,7 @@
         <v>45040</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>

--- a/Översikt TROSA.xlsx
+++ b/Översikt TROSA.xlsx
@@ -572,7 +572,7 @@
         <v>43917</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -684,7 +684,7 @@
         <v>43704</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -787,7 +787,7 @@
         <v>43497</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -875,7 +875,7 @@
         <v>44088</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -962,7 +962,7 @@
         <v>43700</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1057,7 +1057,7 @@
         <v>43781</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1143,7 +1143,7 @@
         <v>44069</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1229,7 +1229,7 @@
         <v>44649</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1320,7 +1320,7 @@
         <v>43958</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1405,7 +1405,7 @@
         <v>43997</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1490,7 +1490,7 @@
         <v>44040</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1575,7 +1575,7 @@
         <v>44062</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1660,7 +1660,7 @@
         <v>44132</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1750,7 +1750,7 @@
         <v>44403</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1844,7 +1844,7 @@
         <v>44505</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1934,7 +1934,7 @@
         <v>43395</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1996,7 +1996,7 @@
         <v>43410</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2053,7 +2053,7 @@
         <v>43410</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2110,7 +2110,7 @@
         <v>43448</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2167,7 +2167,7 @@
         <v>43448</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2224,7 +2224,7 @@
         <v>43469</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2286,7 +2286,7 @@
         <v>43489</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2348,7 +2348,7 @@
         <v>43489</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2405,7 +2405,7 @@
         <v>43489</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2462,7 +2462,7 @@
         <v>43490</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2519,7 +2519,7 @@
         <v>43517</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2576,7 +2576,7 @@
         <v>43540</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2633,7 +2633,7 @@
         <v>43643</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2690,7 +2690,7 @@
         <v>43650</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2747,7 +2747,7 @@
         <v>43684</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2804,7 +2804,7 @@
         <v>43700</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2861,7 +2861,7 @@
         <v>43700</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2923,7 +2923,7 @@
         <v>43700</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2985,7 +2985,7 @@
         <v>43700</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3047,7 +3047,7 @@
         <v>43704</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3109,7 +3109,7 @@
         <v>43732</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3171,7 +3171,7 @@
         <v>43745</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3228,7 +3228,7 @@
         <v>43790</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3285,7 +3285,7 @@
         <v>43794</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3347,7 +3347,7 @@
         <v>43797</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3404,7 +3404,7 @@
         <v>43809</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3461,7 +3461,7 @@
         <v>43859</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3523,7 +3523,7 @@
         <v>43859</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3585,7 +3585,7 @@
         <v>43864</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3647,7 +3647,7 @@
         <v>43865</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3704,7 +3704,7 @@
         <v>43885</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3761,7 +3761,7 @@
         <v>43892</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3818,7 +3818,7 @@
         <v>43896</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3875,7 +3875,7 @@
         <v>43955</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3932,7 +3932,7 @@
         <v>43955</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3989,7 +3989,7 @@
         <v>43963</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4046,7 +4046,7 @@
         <v>43997</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4103,7 +4103,7 @@
         <v>43997</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4160,7 +4160,7 @@
         <v>44004</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4217,7 +4217,7 @@
         <v>44062</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4274,7 +4274,7 @@
         <v>44067</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4336,7 +4336,7 @@
         <v>44069</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4393,7 +4393,7 @@
         <v>44088</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4450,7 +4450,7 @@
         <v>44088</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4507,7 +4507,7 @@
         <v>44088</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4564,7 +4564,7 @@
         <v>44088</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4621,7 +4621,7 @@
         <v>44088</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4678,7 +4678,7 @@
         <v>44088</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4735,7 +4735,7 @@
         <v>44088</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4792,7 +4792,7 @@
         <v>44088</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4849,7 +4849,7 @@
         <v>44088</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4906,7 +4906,7 @@
         <v>44097</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4968,7 +4968,7 @@
         <v>44097</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5030,7 +5030,7 @@
         <v>44102</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5087,7 +5087,7 @@
         <v>44102</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5144,7 +5144,7 @@
         <v>44102</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5201,7 +5201,7 @@
         <v>44102</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5258,7 +5258,7 @@
         <v>44132</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5320,7 +5320,7 @@
         <v>44132</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5377,7 +5377,7 @@
         <v>44132</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5434,7 +5434,7 @@
         <v>44133</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5491,7 +5491,7 @@
         <v>44151</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5548,7 +5548,7 @@
         <v>44238</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5610,7 +5610,7 @@
         <v>44238</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5672,7 +5672,7 @@
         <v>44238</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5729,7 +5729,7 @@
         <v>44249</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5791,7 +5791,7 @@
         <v>44249</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5853,7 +5853,7 @@
         <v>44249</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5915,7 +5915,7 @@
         <v>44266</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5977,7 +5977,7 @@
         <v>44285</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6034,7 +6034,7 @@
         <v>44285</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6091,7 +6091,7 @@
         <v>44293</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6148,7 +6148,7 @@
         <v>44418</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6205,7 +6205,7 @@
         <v>44480</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6262,7 +6262,7 @@
         <v>44489</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6324,7 +6324,7 @@
         <v>44490</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6386,7 +6386,7 @@
         <v>44526</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6448,7 +6448,7 @@
         <v>44530</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6510,7 +6510,7 @@
         <v>44533</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6567,7 +6567,7 @@
         <v>44544</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6629,7 +6629,7 @@
         <v>44582</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6691,7 +6691,7 @@
         <v>44582</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6753,7 +6753,7 @@
         <v>44599</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6810,7 +6810,7 @@
         <v>44599</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6867,7 +6867,7 @@
         <v>44599</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6929,7 +6929,7 @@
         <v>44662</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6986,7 +6986,7 @@
         <v>44680</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7043,7 +7043,7 @@
         <v>44721</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7100,7 +7100,7 @@
         <v>44733</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7157,7 +7157,7 @@
         <v>44756</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7214,7 +7214,7 @@
         <v>44756</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7271,7 +7271,7 @@
         <v>44840</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7328,7 +7328,7 @@
         <v>44852</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7385,7 +7385,7 @@
         <v>44889</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7447,7 +7447,7 @@
         <v>44916</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7509,7 +7509,7 @@
         <v>44916</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7571,7 +7571,7 @@
         <v>44916</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7633,7 +7633,7 @@
         <v>44916</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7695,7 +7695,7 @@
         <v>44937</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7752,7 +7752,7 @@
         <v>44951</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7809,7 +7809,7 @@
         <v>44986</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7871,7 +7871,7 @@
         <v>45005</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7933,7 +7933,7 @@
         <v>45005</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7995,7 +7995,7 @@
         <v>45007</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8057,7 +8057,7 @@
         <v>45007</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8119,7 +8119,7 @@
         <v>45007</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8181,7 +8181,7 @@
         <v>45007</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8243,7 +8243,7 @@
         <v>45007</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8305,7 +8305,7 @@
         <v>45007</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8367,7 +8367,7 @@
         <v>45016</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8429,7 +8429,7 @@
         <v>45016</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8491,7 +8491,7 @@
         <v>45016</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8553,7 +8553,7 @@
         <v>45016</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8615,7 +8615,7 @@
         <v>45016</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8677,7 +8677,7 @@
         <v>45019</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8739,7 +8739,7 @@
         <v>45027</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8801,7 +8801,7 @@
         <v>45027</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8863,7 +8863,7 @@
         <v>45040</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8920,7 +8920,7 @@
         <v>45040</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>

--- a/Översikt TROSA.xlsx
+++ b/Översikt TROSA.xlsx
@@ -572,7 +572,7 @@
         <v>43917</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -684,7 +684,7 @@
         <v>43704</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -787,7 +787,7 @@
         <v>43497</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -875,7 +875,7 @@
         <v>44088</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -962,7 +962,7 @@
         <v>43700</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1057,7 +1057,7 @@
         <v>43781</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1143,7 +1143,7 @@
         <v>44069</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1229,7 +1229,7 @@
         <v>44649</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1320,7 +1320,7 @@
         <v>43958</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1405,7 +1405,7 @@
         <v>43997</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1490,7 +1490,7 @@
         <v>44040</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1575,7 +1575,7 @@
         <v>44062</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1660,7 +1660,7 @@
         <v>44132</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1750,7 +1750,7 @@
         <v>44403</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1844,7 +1844,7 @@
         <v>44505</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1934,7 +1934,7 @@
         <v>43395</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1996,7 +1996,7 @@
         <v>43410</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2053,7 +2053,7 @@
         <v>43410</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2110,7 +2110,7 @@
         <v>43448</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2167,7 +2167,7 @@
         <v>43448</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2224,7 +2224,7 @@
         <v>43469</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2286,7 +2286,7 @@
         <v>43489</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2348,7 +2348,7 @@
         <v>43489</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2405,7 +2405,7 @@
         <v>43489</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2462,7 +2462,7 @@
         <v>43490</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2519,7 +2519,7 @@
         <v>43517</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2576,7 +2576,7 @@
         <v>43540</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2633,7 +2633,7 @@
         <v>43643</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2690,7 +2690,7 @@
         <v>43650</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2747,7 +2747,7 @@
         <v>43684</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2804,7 +2804,7 @@
         <v>43700</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2861,7 +2861,7 @@
         <v>43700</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2923,7 +2923,7 @@
         <v>43700</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2985,7 +2985,7 @@
         <v>43700</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3047,7 +3047,7 @@
         <v>43704</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3109,7 +3109,7 @@
         <v>43732</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3171,7 +3171,7 @@
         <v>43745</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3228,7 +3228,7 @@
         <v>43790</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3285,7 +3285,7 @@
         <v>43794</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3347,7 +3347,7 @@
         <v>43797</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3404,7 +3404,7 @@
         <v>43809</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3461,7 +3461,7 @@
         <v>43859</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3523,7 +3523,7 @@
         <v>43859</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3585,7 +3585,7 @@
         <v>43864</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3647,7 +3647,7 @@
         <v>43865</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3704,7 +3704,7 @@
         <v>43885</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3761,7 +3761,7 @@
         <v>43892</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3818,7 +3818,7 @@
         <v>43896</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3875,7 +3875,7 @@
         <v>43955</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3932,7 +3932,7 @@
         <v>43955</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3989,7 +3989,7 @@
         <v>43963</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4046,7 +4046,7 @@
         <v>43997</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4103,7 +4103,7 @@
         <v>43997</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4160,7 +4160,7 @@
         <v>44004</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4217,7 +4217,7 @@
         <v>44062</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4274,7 +4274,7 @@
         <v>44067</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4336,7 +4336,7 @@
         <v>44069</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4393,7 +4393,7 @@
         <v>44088</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4450,7 +4450,7 @@
         <v>44088</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4507,7 +4507,7 @@
         <v>44088</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4564,7 +4564,7 @@
         <v>44088</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4621,7 +4621,7 @@
         <v>44088</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4678,7 +4678,7 @@
         <v>44088</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4735,7 +4735,7 @@
         <v>44088</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4792,7 +4792,7 @@
         <v>44088</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4849,7 +4849,7 @@
         <v>44088</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4906,7 +4906,7 @@
         <v>44097</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4968,7 +4968,7 @@
         <v>44097</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5030,7 +5030,7 @@
         <v>44102</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5087,7 +5087,7 @@
         <v>44102</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5144,7 +5144,7 @@
         <v>44102</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5201,7 +5201,7 @@
         <v>44102</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5258,7 +5258,7 @@
         <v>44132</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5320,7 +5320,7 @@
         <v>44132</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5377,7 +5377,7 @@
         <v>44132</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5434,7 +5434,7 @@
         <v>44133</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5491,7 +5491,7 @@
         <v>44151</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5548,7 +5548,7 @@
         <v>44238</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5610,7 +5610,7 @@
         <v>44238</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5672,7 +5672,7 @@
         <v>44238</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5729,7 +5729,7 @@
         <v>44249</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5791,7 +5791,7 @@
         <v>44249</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5853,7 +5853,7 @@
         <v>44249</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5915,7 +5915,7 @@
         <v>44266</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5977,7 +5977,7 @@
         <v>44285</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6034,7 +6034,7 @@
         <v>44285</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6091,7 +6091,7 @@
         <v>44293</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6148,7 +6148,7 @@
         <v>44418</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6205,7 +6205,7 @@
         <v>44480</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6262,7 +6262,7 @@
         <v>44489</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6324,7 +6324,7 @@
         <v>44490</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6386,7 +6386,7 @@
         <v>44526</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6448,7 +6448,7 @@
         <v>44530</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6510,7 +6510,7 @@
         <v>44533</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6567,7 +6567,7 @@
         <v>44544</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6629,7 +6629,7 @@
         <v>44582</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6691,7 +6691,7 @@
         <v>44582</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6753,7 +6753,7 @@
         <v>44599</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6810,7 +6810,7 @@
         <v>44599</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6867,7 +6867,7 @@
         <v>44599</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6929,7 +6929,7 @@
         <v>44662</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6986,7 +6986,7 @@
         <v>44680</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7043,7 +7043,7 @@
         <v>44721</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7100,7 +7100,7 @@
         <v>44733</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7157,7 +7157,7 @@
         <v>44756</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7214,7 +7214,7 @@
         <v>44756</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7271,7 +7271,7 @@
         <v>44840</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7328,7 +7328,7 @@
         <v>44852</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7385,7 +7385,7 @@
         <v>44889</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7447,7 +7447,7 @@
         <v>44916</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7509,7 +7509,7 @@
         <v>44916</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7571,7 +7571,7 @@
         <v>44916</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7633,7 +7633,7 @@
         <v>44916</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7695,7 +7695,7 @@
         <v>44937</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7752,7 +7752,7 @@
         <v>44951</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7809,7 +7809,7 @@
         <v>44986</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7871,7 +7871,7 @@
         <v>45005</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7933,7 +7933,7 @@
         <v>45005</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7995,7 +7995,7 @@
         <v>45007</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8057,7 +8057,7 @@
         <v>45007</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8119,7 +8119,7 @@
         <v>45007</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8181,7 +8181,7 @@
         <v>45007</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8243,7 +8243,7 @@
         <v>45007</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8305,7 +8305,7 @@
         <v>45007</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8367,7 +8367,7 @@
         <v>45016</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8429,7 +8429,7 @@
         <v>45016</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8491,7 +8491,7 @@
         <v>45016</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8553,7 +8553,7 @@
         <v>45016</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8615,7 +8615,7 @@
         <v>45016</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8677,7 +8677,7 @@
         <v>45019</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8739,7 +8739,7 @@
         <v>45027</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8801,7 +8801,7 @@
         <v>45027</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8863,7 +8863,7 @@
         <v>45040</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8920,7 +8920,7 @@
         <v>45040</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>

--- a/Översikt TROSA.xlsx
+++ b/Översikt TROSA.xlsx
@@ -572,7 +572,7 @@
         <v>43917</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -684,7 +684,7 @@
         <v>43704</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -787,7 +787,7 @@
         <v>43497</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -868,544 +868,547 @@
     <row r="5" ht="15" customHeight="1">
       <c r="A5" t="inlineStr">
         <is>
+          <t>A 38880-2020</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>44062</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>45192</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>SÖDERMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>TROSA</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>4</v>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>Kricka
+Åkergroda
+Mindre vattensalamander
+Vanlig padda</t>
+        </is>
+      </c>
+      <c r="S5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_TROSA/artfynd/A 38880-2020.xlsx", "A 38880-2020")</f>
+        <v/>
+      </c>
+      <c r="T5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_TROSA/kartor/A 38880-2020.png", "A 38880-2020")</f>
+        <v/>
+      </c>
+      <c r="V5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_TROSA/klagomål/A 38880-2020.docx", "A 38880-2020")</f>
+        <v/>
+      </c>
+      <c r="W5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_TROSA/klagomålsmail/A 38880-2020.docx", "A 38880-2020")</f>
+        <v/>
+      </c>
+      <c r="X5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_TROSA/tillsyn/A 38880-2020.docx", "A 38880-2020")</f>
+        <v/>
+      </c>
+      <c r="Y5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_TROSA/tillsynsmail/A 38880-2020.docx", "A 38880-2020")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" ht="15" customHeight="1">
+      <c r="A6" t="inlineStr">
+        <is>
           <t>A 45296-2020</t>
         </is>
       </c>
-      <c r="B5" s="1" t="n">
+      <c r="B6" s="1" t="n">
         <v>44088</v>
       </c>
-      <c r="C5" s="1" t="n">
-        <v>45190</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>SÖDERMANLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>TROSA</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
+      <c r="C6" s="1" t="n">
+        <v>45192</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>SÖDERMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>TROSA</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
         <v>49.6</v>
       </c>
-      <c r="H5" t="n">
+      <c r="H6" t="n">
         <v>3</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
         <v>1</v>
       </c>
-      <c r="K5" t="n">
+      <c r="K6" t="n">
         <v>2</v>
       </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
         <v>3</v>
       </c>
-      <c r="P5" t="n">
+      <c r="P6" t="n">
         <v>2</v>
       </c>
-      <c r="Q5" t="n">
+      <c r="Q6" t="n">
         <v>3</v>
       </c>
-      <c r="R5" s="2" t="inlineStr">
+      <c r="R6" s="2" t="inlineStr">
         <is>
           <t>Kricka
 Tofsvipa
 Rödvingetrast</t>
         </is>
       </c>
-      <c r="S5">
+      <c r="S6">
         <f>HYPERLINK("https://klasma.github.io/Logging_TROSA/artfynd/A 45296-2020.xlsx", "A 45296-2020")</f>
         <v/>
       </c>
-      <c r="T5">
+      <c r="T6">
         <f>HYPERLINK("https://klasma.github.io/Logging_TROSA/kartor/A 45296-2020.png", "A 45296-2020")</f>
         <v/>
       </c>
-      <c r="V5">
+      <c r="V6">
         <f>HYPERLINK("https://klasma.github.io/Logging_TROSA/klagomål/A 45296-2020.docx", "A 45296-2020")</f>
         <v/>
       </c>
-      <c r="W5">
+      <c r="W6">
         <f>HYPERLINK("https://klasma.github.io/Logging_TROSA/klagomålsmail/A 45296-2020.docx", "A 45296-2020")</f>
         <v/>
       </c>
-      <c r="X5">
+      <c r="X6">
         <f>HYPERLINK("https://klasma.github.io/Logging_TROSA/tillsyn/A 45296-2020.docx", "A 45296-2020")</f>
         <v/>
       </c>
-      <c r="Y5">
+      <c r="Y6">
         <f>HYPERLINK("https://klasma.github.io/Logging_TROSA/tillsynsmail/A 45296-2020.docx", "A 45296-2020")</f>
         <v/>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" t="inlineStr">
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" t="inlineStr">
         <is>
           <t>A 41919-2019</t>
         </is>
       </c>
-      <c r="B6" s="1" t="n">
+      <c r="B7" s="1" t="n">
         <v>43700</v>
       </c>
-      <c r="C6" s="1" t="n">
-        <v>45190</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>SÖDERMANLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>TROSA</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
+      <c r="C7" s="1" t="n">
+        <v>45192</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>SÖDERMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>TROSA</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
         <is>
           <t>Övriga Aktiebolag</t>
         </is>
       </c>
-      <c r="G6" t="n">
+      <c r="G7" t="n">
         <v>6.8</v>
       </c>
-      <c r="H6" t="n">
+      <c r="H7" t="n">
         <v>2</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
         <v>1</v>
       </c>
-      <c r="K6" t="n">
+      <c r="K7" t="n">
         <v>1</v>
       </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
         <v>2</v>
       </c>
-      <c r="P6" t="n">
+      <c r="P7" t="n">
         <v>1</v>
       </c>
-      <c r="Q6" t="n">
+      <c r="Q7" t="n">
         <v>2</v>
       </c>
-      <c r="R6" s="2" t="inlineStr">
+      <c r="R7" s="2" t="inlineStr">
         <is>
           <t>Knärot
 Spillkråka</t>
         </is>
       </c>
-      <c r="S6">
+      <c r="S7">
         <f>HYPERLINK("https://klasma.github.io/Logging_TROSA/artfynd/A 41919-2019.xlsx", "A 41919-2019")</f>
         <v/>
       </c>
-      <c r="T6">
+      <c r="T7">
         <f>HYPERLINK("https://klasma.github.io/Logging_TROSA/kartor/A 41919-2019.png", "A 41919-2019")</f>
         <v/>
       </c>
-      <c r="U6">
+      <c r="U7">
         <f>HYPERLINK("https://klasma.github.io/Logging_TROSA/knärot/A 41919-2019.png", "A 41919-2019")</f>
         <v/>
       </c>
-      <c r="V6">
+      <c r="V7">
         <f>HYPERLINK("https://klasma.github.io/Logging_TROSA/klagomål/A 41919-2019.docx", "A 41919-2019")</f>
         <v/>
       </c>
-      <c r="W6">
+      <c r="W7">
         <f>HYPERLINK("https://klasma.github.io/Logging_TROSA/klagomålsmail/A 41919-2019.docx", "A 41919-2019")</f>
         <v/>
       </c>
-      <c r="X6">
+      <c r="X7">
         <f>HYPERLINK("https://klasma.github.io/Logging_TROSA/tillsyn/A 41919-2019.docx", "A 41919-2019")</f>
         <v/>
       </c>
-      <c r="Y6">
+      <c r="Y7">
         <f>HYPERLINK("https://klasma.github.io/Logging_TROSA/tillsynsmail/A 41919-2019.docx", "A 41919-2019")</f>
         <v/>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" t="inlineStr">
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" t="inlineStr">
         <is>
           <t>A 60748-2019</t>
         </is>
       </c>
-      <c r="B7" s="1" t="n">
+      <c r="B8" s="1" t="n">
         <v>43781</v>
       </c>
-      <c r="C7" s="1" t="n">
-        <v>45190</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>SÖDERMANLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>TROSA</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
+      <c r="C8" s="1" t="n">
+        <v>45192</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>SÖDERMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>TROSA</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
         <v>6.2</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
         <v>1</v>
       </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
         <v>1</v>
       </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
         <v>2</v>
       </c>
-      <c r="P7" t="n">
+      <c r="P8" t="n">
         <v>1</v>
       </c>
-      <c r="Q7" t="n">
+      <c r="Q8" t="n">
         <v>2</v>
       </c>
-      <c r="R7" s="2" t="inlineStr">
+      <c r="R8" s="2" t="inlineStr">
         <is>
           <t>Fältgentiana
 Gullklöver</t>
         </is>
       </c>
-      <c r="S7">
+      <c r="S8">
         <f>HYPERLINK("https://klasma.github.io/Logging_TROSA/artfynd/A 60748-2019.xlsx", "A 60748-2019")</f>
         <v/>
       </c>
-      <c r="T7">
+      <c r="T8">
         <f>HYPERLINK("https://klasma.github.io/Logging_TROSA/kartor/A 60748-2019.png", "A 60748-2019")</f>
         <v/>
       </c>
-      <c r="V7">
+      <c r="V8">
         <f>HYPERLINK("https://klasma.github.io/Logging_TROSA/klagomål/A 60748-2019.docx", "A 60748-2019")</f>
         <v/>
       </c>
-      <c r="W7">
+      <c r="W8">
         <f>HYPERLINK("https://klasma.github.io/Logging_TROSA/klagomålsmail/A 60748-2019.docx", "A 60748-2019")</f>
         <v/>
       </c>
-      <c r="X7">
+      <c r="X8">
         <f>HYPERLINK("https://klasma.github.io/Logging_TROSA/tillsyn/A 60748-2019.docx", "A 60748-2019")</f>
         <v/>
       </c>
-      <c r="Y7">
+      <c r="Y8">
         <f>HYPERLINK("https://klasma.github.io/Logging_TROSA/tillsynsmail/A 60748-2019.docx", "A 60748-2019")</f>
         <v/>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" t="inlineStr">
+    <row r="9" ht="15" customHeight="1">
+      <c r="A9" t="inlineStr">
         <is>
           <t>A 40489-2020</t>
         </is>
       </c>
-      <c r="B8" s="1" t="n">
+      <c r="B9" s="1" t="n">
         <v>44069</v>
       </c>
-      <c r="C8" s="1" t="n">
-        <v>45190</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>SÖDERMANLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>TROSA</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
+      <c r="C9" s="1" t="n">
+        <v>45192</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>SÖDERMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>TROSA</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
         <v>6.6</v>
       </c>
-      <c r="H8" t="n">
+      <c r="H9" t="n">
         <v>2</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
         <v>2</v>
       </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
         <v>2</v>
       </c>
-      <c r="P8" t="n">
+      <c r="P9" t="n">
         <v>2</v>
       </c>
-      <c r="Q8" t="n">
+      <c r="Q9" t="n">
         <v>2</v>
       </c>
-      <c r="R8" s="2" t="inlineStr">
+      <c r="R9" s="2" t="inlineStr">
         <is>
           <t>Kricka
 Tallbit</t>
         </is>
       </c>
-      <c r="S8">
+      <c r="S9">
         <f>HYPERLINK("https://klasma.github.io/Logging_TROSA/artfynd/A 40489-2020.xlsx", "A 40489-2020")</f>
         <v/>
       </c>
-      <c r="T8">
+      <c r="T9">
         <f>HYPERLINK("https://klasma.github.io/Logging_TROSA/kartor/A 40489-2020.png", "A 40489-2020")</f>
         <v/>
       </c>
-      <c r="V8">
+      <c r="V9">
         <f>HYPERLINK("https://klasma.github.io/Logging_TROSA/klagomål/A 40489-2020.docx", "A 40489-2020")</f>
         <v/>
       </c>
-      <c r="W8">
+      <c r="W9">
         <f>HYPERLINK("https://klasma.github.io/Logging_TROSA/klagomålsmail/A 40489-2020.docx", "A 40489-2020")</f>
         <v/>
       </c>
-      <c r="X8">
+      <c r="X9">
         <f>HYPERLINK("https://klasma.github.io/Logging_TROSA/tillsyn/A 40489-2020.docx", "A 40489-2020")</f>
         <v/>
       </c>
-      <c r="Y8">
+      <c r="Y9">
         <f>HYPERLINK("https://klasma.github.io/Logging_TROSA/tillsynsmail/A 40489-2020.docx", "A 40489-2020")</f>
         <v/>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" t="inlineStr">
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" t="inlineStr">
         <is>
           <t>A 13760-2022</t>
         </is>
       </c>
-      <c r="B9" s="1" t="n">
+      <c r="B10" s="1" t="n">
         <v>44649</v>
       </c>
-      <c r="C9" s="1" t="n">
-        <v>45190</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>SÖDERMANLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>TROSA</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
+      <c r="C10" s="1" t="n">
+        <v>45192</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>SÖDERMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>TROSA</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
         <is>
           <t>Övriga statliga verk och myndigheter</t>
         </is>
       </c>
-      <c r="G9" t="n">
+      <c r="G10" t="n">
         <v>2</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
         <v>1</v>
       </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
         <v>1</v>
       </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
         <v>1</v>
       </c>
-      <c r="P9" t="n">
+      <c r="P10" t="n">
         <v>1</v>
       </c>
-      <c r="Q9" t="n">
+      <c r="Q10" t="n">
         <v>2</v>
       </c>
-      <c r="R9" s="2" t="inlineStr">
+      <c r="R10" s="2" t="inlineStr">
         <is>
           <t>Ask
 Strutbräken</t>
         </is>
       </c>
-      <c r="S9">
+      <c r="S10">
         <f>HYPERLINK("https://klasma.github.io/Logging_TROSA/artfynd/A 13760-2022.xlsx", "A 13760-2022")</f>
         <v/>
       </c>
-      <c r="T9">
+      <c r="T10">
         <f>HYPERLINK("https://klasma.github.io/Logging_TROSA/kartor/A 13760-2022.png", "A 13760-2022")</f>
         <v/>
       </c>
-      <c r="V9">
+      <c r="V10">
         <f>HYPERLINK("https://klasma.github.io/Logging_TROSA/klagomål/A 13760-2022.docx", "A 13760-2022")</f>
         <v/>
       </c>
-      <c r="W9">
+      <c r="W10">
         <f>HYPERLINK("https://klasma.github.io/Logging_TROSA/klagomålsmail/A 13760-2022.docx", "A 13760-2022")</f>
         <v/>
       </c>
-      <c r="X9">
+      <c r="X10">
         <f>HYPERLINK("https://klasma.github.io/Logging_TROSA/tillsyn/A 13760-2022.docx", "A 13760-2022")</f>
         <v/>
       </c>
-      <c r="Y9">
+      <c r="Y10">
         <f>HYPERLINK("https://klasma.github.io/Logging_TROSA/tillsynsmail/A 13760-2022.docx", "A 13760-2022")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>A 21940-2020</t>
-        </is>
-      </c>
-      <c r="B10" s="1" t="n">
-        <v>43958</v>
-      </c>
-      <c r="C10" s="1" t="n">
-        <v>45190</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>SÖDERMANLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>TROSA</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1</v>
-      </c>
-      <c r="R10" s="2" t="inlineStr">
-        <is>
-          <t>Citronfläckad kärrtrollslända</t>
-        </is>
-      </c>
-      <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TROSA/artfynd/A 21940-2020.xlsx", "A 21940-2020")</f>
-        <v/>
-      </c>
-      <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TROSA/kartor/A 21940-2020.png", "A 21940-2020")</f>
-        <v/>
-      </c>
-      <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TROSA/klagomål/A 21940-2020.docx", "A 21940-2020")</f>
-        <v/>
-      </c>
-      <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TROSA/klagomålsmail/A 21940-2020.docx", "A 21940-2020")</f>
-        <v/>
-      </c>
-      <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TROSA/tillsyn/A 21940-2020.docx", "A 21940-2020")</f>
-        <v/>
-      </c>
-      <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TROSA/tillsynsmail/A 21940-2020.docx", "A 21940-2020")</f>
         <v/>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 28149-2020</t>
+          <t>A 21940-2020</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>43997</v>
+        <v>43958</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1418,13 +1421,13 @@
         </is>
       </c>
       <c r="G11" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="H11" t="n">
         <v>1</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1452,45 +1455,45 @@
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>Trubbfjädermossa</t>
+          <t>Citronfläckad kärrtrollslända</t>
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TROSA/artfynd/A 28149-2020.xlsx", "A 28149-2020")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TROSA/artfynd/A 21940-2020.xlsx", "A 21940-2020")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TROSA/kartor/A 28149-2020.png", "A 28149-2020")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TROSA/kartor/A 21940-2020.png", "A 21940-2020")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TROSA/klagomål/A 28149-2020.docx", "A 28149-2020")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TROSA/klagomål/A 21940-2020.docx", "A 21940-2020")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TROSA/klagomålsmail/A 28149-2020.docx", "A 28149-2020")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TROSA/klagomålsmail/A 21940-2020.docx", "A 21940-2020")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TROSA/tillsyn/A 28149-2020.docx", "A 28149-2020")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TROSA/tillsyn/A 21940-2020.docx", "A 21940-2020")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TROSA/tillsynsmail/A 28149-2020.docx", "A 28149-2020")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TROSA/tillsynsmail/A 21940-2020.docx", "A 21940-2020")</f>
         <v/>
       </c>
     </row>
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 35106-2020</t>
+          <t>A 28149-2020</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>44040</v>
+        <v>43997</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1503,13 +1506,13 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.3</v>
+        <v>1</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1518,7 +1521,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -1527,55 +1530,55 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>1</v>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>Stor bockrot</t>
+          <t>Trubbfjädermossa</t>
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TROSA/artfynd/A 35106-2020.xlsx", "A 35106-2020")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TROSA/artfynd/A 28149-2020.xlsx", "A 28149-2020")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TROSA/kartor/A 35106-2020.png", "A 35106-2020")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TROSA/kartor/A 28149-2020.png", "A 28149-2020")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TROSA/klagomål/A 35106-2020.docx", "A 35106-2020")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TROSA/klagomål/A 28149-2020.docx", "A 28149-2020")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TROSA/klagomålsmail/A 35106-2020.docx", "A 35106-2020")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TROSA/klagomålsmail/A 28149-2020.docx", "A 28149-2020")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TROSA/tillsyn/A 35106-2020.docx", "A 35106-2020")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TROSA/tillsyn/A 28149-2020.docx", "A 28149-2020")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TROSA/tillsynsmail/A 35106-2020.docx", "A 35106-2020")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TROSA/tillsynsmail/A 28149-2020.docx", "A 28149-2020")</f>
         <v/>
       </c>
     </row>
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 38880-2020</t>
+          <t>A 35106-2020</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>44062</v>
+        <v>44040</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1588,22 +1591,22 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>8.9</v>
+        <v>2.3</v>
       </c>
       <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
         <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
-        <v>1</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
@@ -1622,31 +1625,31 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>Kricka</t>
+          <t>Stor bockrot</t>
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TROSA/artfynd/A 38880-2020.xlsx", "A 38880-2020")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TROSA/artfynd/A 35106-2020.xlsx", "A 35106-2020")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TROSA/kartor/A 38880-2020.png", "A 38880-2020")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TROSA/kartor/A 35106-2020.png", "A 35106-2020")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TROSA/klagomål/A 38880-2020.docx", "A 38880-2020")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TROSA/klagomål/A 35106-2020.docx", "A 35106-2020")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TROSA/klagomålsmail/A 38880-2020.docx", "A 38880-2020")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TROSA/klagomålsmail/A 35106-2020.docx", "A 35106-2020")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TROSA/tillsyn/A 38880-2020.docx", "A 38880-2020")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TROSA/tillsyn/A 35106-2020.docx", "A 35106-2020")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TROSA/tillsynsmail/A 38880-2020.docx", "A 38880-2020")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TROSA/tillsynsmail/A 35106-2020.docx", "A 35106-2020")</f>
         <v/>
       </c>
     </row>
@@ -1660,7 +1663,7 @@
         <v>44132</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1750,7 +1753,7 @@
         <v>44403</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1844,7 +1847,7 @@
         <v>44505</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1934,7 +1937,7 @@
         <v>43395</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1996,7 +1999,7 @@
         <v>43410</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2053,7 +2056,7 @@
         <v>43410</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2110,7 +2113,7 @@
         <v>43448</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2167,7 +2170,7 @@
         <v>43448</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2224,7 +2227,7 @@
         <v>43469</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2286,7 +2289,7 @@
         <v>43489</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2348,7 +2351,7 @@
         <v>43489</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2405,7 +2408,7 @@
         <v>43489</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2462,7 +2465,7 @@
         <v>43490</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2519,7 +2522,7 @@
         <v>43517</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2576,7 +2579,7 @@
         <v>43540</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2633,7 +2636,7 @@
         <v>43643</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2690,7 +2693,7 @@
         <v>43650</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2747,7 +2750,7 @@
         <v>43684</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2804,7 +2807,7 @@
         <v>43700</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2861,7 +2864,7 @@
         <v>43700</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2923,7 +2926,7 @@
         <v>43700</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2985,7 +2988,7 @@
         <v>43700</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3047,7 +3050,7 @@
         <v>43704</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3109,7 +3112,7 @@
         <v>43732</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3171,7 +3174,7 @@
         <v>43745</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3228,7 +3231,7 @@
         <v>43790</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3285,7 +3288,7 @@
         <v>43794</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3347,7 +3350,7 @@
         <v>43797</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3404,7 +3407,7 @@
         <v>43809</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3461,7 +3464,7 @@
         <v>43859</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3523,7 +3526,7 @@
         <v>43859</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3585,7 +3588,7 @@
         <v>43864</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3647,7 +3650,7 @@
         <v>43865</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3704,7 +3707,7 @@
         <v>43885</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3761,7 +3764,7 @@
         <v>43892</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3818,7 +3821,7 @@
         <v>43896</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3875,7 +3878,7 @@
         <v>43955</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3932,7 +3935,7 @@
         <v>43955</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3989,7 +3992,7 @@
         <v>43963</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4046,7 +4049,7 @@
         <v>43997</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4103,7 +4106,7 @@
         <v>43997</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4160,7 +4163,7 @@
         <v>44004</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4217,7 +4220,7 @@
         <v>44062</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4274,7 +4277,7 @@
         <v>44067</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4336,7 +4339,7 @@
         <v>44069</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4393,7 +4396,7 @@
         <v>44088</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4450,7 +4453,7 @@
         <v>44088</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4507,7 +4510,7 @@
         <v>44088</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4564,7 +4567,7 @@
         <v>44088</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4621,7 +4624,7 @@
         <v>44088</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4678,7 +4681,7 @@
         <v>44088</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4735,7 +4738,7 @@
         <v>44088</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4792,7 +4795,7 @@
         <v>44088</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4849,7 +4852,7 @@
         <v>44088</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4906,7 +4909,7 @@
         <v>44097</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4968,7 +4971,7 @@
         <v>44097</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5030,7 +5033,7 @@
         <v>44102</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5087,7 +5090,7 @@
         <v>44102</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5144,7 +5147,7 @@
         <v>44102</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5201,7 +5204,7 @@
         <v>44102</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5258,7 +5261,7 @@
         <v>44132</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5320,7 +5323,7 @@
         <v>44132</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5377,7 +5380,7 @@
         <v>44132</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5434,7 +5437,7 @@
         <v>44133</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5491,7 +5494,7 @@
         <v>44151</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5548,7 +5551,7 @@
         <v>44238</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5610,7 +5613,7 @@
         <v>44238</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5672,7 +5675,7 @@
         <v>44238</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5729,7 +5732,7 @@
         <v>44249</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5791,7 +5794,7 @@
         <v>44249</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5853,7 +5856,7 @@
         <v>44249</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5915,7 +5918,7 @@
         <v>44266</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5977,7 +5980,7 @@
         <v>44285</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6034,7 +6037,7 @@
         <v>44285</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6091,7 +6094,7 @@
         <v>44293</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6148,7 +6151,7 @@
         <v>44418</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6205,7 +6208,7 @@
         <v>44480</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6262,7 +6265,7 @@
         <v>44489</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6324,7 +6327,7 @@
         <v>44490</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6386,7 +6389,7 @@
         <v>44526</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6448,7 +6451,7 @@
         <v>44530</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6510,7 +6513,7 @@
         <v>44533</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6567,7 +6570,7 @@
         <v>44544</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6629,7 +6632,7 @@
         <v>44582</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6691,7 +6694,7 @@
         <v>44582</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6753,7 +6756,7 @@
         <v>44599</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6810,7 +6813,7 @@
         <v>44599</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6867,7 +6870,7 @@
         <v>44599</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6929,7 +6932,7 @@
         <v>44662</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6986,7 +6989,7 @@
         <v>44680</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7043,7 +7046,7 @@
         <v>44721</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7100,7 +7103,7 @@
         <v>44733</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7157,7 +7160,7 @@
         <v>44756</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7214,7 +7217,7 @@
         <v>44756</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7271,7 +7274,7 @@
         <v>44840</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7328,7 +7331,7 @@
         <v>44852</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7385,7 +7388,7 @@
         <v>44889</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7447,7 +7450,7 @@
         <v>44916</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7509,7 +7512,7 @@
         <v>44916</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7571,7 +7574,7 @@
         <v>44916</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7633,7 +7636,7 @@
         <v>44916</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7695,7 +7698,7 @@
         <v>44937</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7752,7 +7755,7 @@
         <v>44951</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7809,7 +7812,7 @@
         <v>44986</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7871,7 +7874,7 @@
         <v>45005</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7933,7 +7936,7 @@
         <v>45005</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7995,7 +7998,7 @@
         <v>45007</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8057,7 +8060,7 @@
         <v>45007</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8119,7 +8122,7 @@
         <v>45007</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8181,7 +8184,7 @@
         <v>45007</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8243,7 +8246,7 @@
         <v>45007</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8305,7 +8308,7 @@
         <v>45007</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8367,7 +8370,7 @@
         <v>45016</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8429,7 +8432,7 @@
         <v>45016</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8491,7 +8494,7 @@
         <v>45016</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8553,7 +8556,7 @@
         <v>45016</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8615,7 +8618,7 @@
         <v>45016</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8677,7 +8680,7 @@
         <v>45019</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8739,7 +8742,7 @@
         <v>45027</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8801,7 +8804,7 @@
         <v>45027</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8863,7 +8866,7 @@
         <v>45040</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8920,7 +8923,7 @@
         <v>45040</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>

--- a/Översikt TROSA.xlsx
+++ b/Översikt TROSA.xlsx
@@ -572,7 +572,7 @@
         <v>43917</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -684,7 +684,7 @@
         <v>43704</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -787,7 +787,7 @@
         <v>43497</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -875,7 +875,7 @@
         <v>44062</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -963,7 +963,7 @@
         <v>44088</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1050,7 +1050,7 @@
         <v>43700</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1145,7 +1145,7 @@
         <v>43781</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1231,7 +1231,7 @@
         <v>44069</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1317,7 +1317,7 @@
         <v>44649</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1408,7 +1408,7 @@
         <v>43958</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1493,7 +1493,7 @@
         <v>43997</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1578,7 +1578,7 @@
         <v>44040</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1663,7 +1663,7 @@
         <v>44132</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1753,7 +1753,7 @@
         <v>44403</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1847,7 +1847,7 @@
         <v>44505</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1937,7 +1937,7 @@
         <v>43395</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1999,7 +1999,7 @@
         <v>43410</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2056,7 +2056,7 @@
         <v>43410</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2113,7 +2113,7 @@
         <v>43448</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2170,7 +2170,7 @@
         <v>43448</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2227,7 +2227,7 @@
         <v>43469</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2289,7 +2289,7 @@
         <v>43489</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2351,7 +2351,7 @@
         <v>43489</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2408,7 +2408,7 @@
         <v>43489</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2465,7 +2465,7 @@
         <v>43490</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2522,7 +2522,7 @@
         <v>43517</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2579,7 +2579,7 @@
         <v>43540</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2636,7 +2636,7 @@
         <v>43643</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2693,7 +2693,7 @@
         <v>43650</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2750,7 +2750,7 @@
         <v>43684</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2807,7 +2807,7 @@
         <v>43700</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2864,7 +2864,7 @@
         <v>43700</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2926,7 +2926,7 @@
         <v>43700</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2988,7 +2988,7 @@
         <v>43700</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3050,7 +3050,7 @@
         <v>43704</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3112,7 +3112,7 @@
         <v>43732</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3174,7 +3174,7 @@
         <v>43745</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3231,7 +3231,7 @@
         <v>43790</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3288,7 +3288,7 @@
         <v>43794</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3350,7 +3350,7 @@
         <v>43797</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3407,7 +3407,7 @@
         <v>43809</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3464,7 +3464,7 @@
         <v>43859</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3526,7 +3526,7 @@
         <v>43859</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3588,7 +3588,7 @@
         <v>43864</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3650,7 +3650,7 @@
         <v>43865</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3707,7 +3707,7 @@
         <v>43885</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3764,7 +3764,7 @@
         <v>43892</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3821,7 +3821,7 @@
         <v>43896</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3878,7 +3878,7 @@
         <v>43955</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3935,7 +3935,7 @@
         <v>43955</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3992,7 +3992,7 @@
         <v>43963</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4049,7 +4049,7 @@
         <v>43997</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4106,7 +4106,7 @@
         <v>43997</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4163,7 +4163,7 @@
         <v>44004</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4220,7 +4220,7 @@
         <v>44062</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4277,7 +4277,7 @@
         <v>44067</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4339,7 +4339,7 @@
         <v>44069</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4396,7 +4396,7 @@
         <v>44088</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4453,7 +4453,7 @@
         <v>44088</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4510,7 +4510,7 @@
         <v>44088</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4567,7 +4567,7 @@
         <v>44088</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4624,7 +4624,7 @@
         <v>44088</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4681,7 +4681,7 @@
         <v>44088</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4738,7 +4738,7 @@
         <v>44088</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4795,7 +4795,7 @@
         <v>44088</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4852,7 +4852,7 @@
         <v>44088</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4909,7 +4909,7 @@
         <v>44097</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4971,7 +4971,7 @@
         <v>44097</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5033,7 +5033,7 @@
         <v>44102</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5090,7 +5090,7 @@
         <v>44102</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5147,7 +5147,7 @@
         <v>44102</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5204,7 +5204,7 @@
         <v>44102</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5261,7 +5261,7 @@
         <v>44132</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5323,7 +5323,7 @@
         <v>44132</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5380,7 +5380,7 @@
         <v>44132</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5437,7 +5437,7 @@
         <v>44133</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5494,7 +5494,7 @@
         <v>44151</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5551,7 +5551,7 @@
         <v>44238</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5613,7 +5613,7 @@
         <v>44238</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5675,7 +5675,7 @@
         <v>44238</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5732,7 +5732,7 @@
         <v>44249</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5794,7 +5794,7 @@
         <v>44249</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5856,7 +5856,7 @@
         <v>44249</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5918,7 +5918,7 @@
         <v>44266</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5980,7 +5980,7 @@
         <v>44285</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6037,7 +6037,7 @@
         <v>44285</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6094,7 +6094,7 @@
         <v>44293</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6151,7 +6151,7 @@
         <v>44418</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6208,7 +6208,7 @@
         <v>44480</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6265,7 +6265,7 @@
         <v>44489</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6327,7 +6327,7 @@
         <v>44490</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6389,7 +6389,7 @@
         <v>44526</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6451,7 +6451,7 @@
         <v>44530</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6513,7 +6513,7 @@
         <v>44533</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6570,7 +6570,7 @@
         <v>44544</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6632,7 +6632,7 @@
         <v>44582</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6694,7 +6694,7 @@
         <v>44582</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6756,7 +6756,7 @@
         <v>44599</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6813,7 +6813,7 @@
         <v>44599</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6870,7 +6870,7 @@
         <v>44599</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6932,7 +6932,7 @@
         <v>44662</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6989,7 +6989,7 @@
         <v>44680</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7046,7 +7046,7 @@
         <v>44721</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7103,7 +7103,7 @@
         <v>44733</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7160,7 +7160,7 @@
         <v>44756</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7217,7 +7217,7 @@
         <v>44756</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7274,7 +7274,7 @@
         <v>44840</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7331,7 +7331,7 @@
         <v>44852</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7388,7 +7388,7 @@
         <v>44889</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7450,7 +7450,7 @@
         <v>44916</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7512,7 +7512,7 @@
         <v>44916</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7574,7 +7574,7 @@
         <v>44916</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7636,7 +7636,7 @@
         <v>44916</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7698,7 +7698,7 @@
         <v>44937</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7755,7 +7755,7 @@
         <v>44951</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7812,7 +7812,7 @@
         <v>44986</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7874,7 +7874,7 @@
         <v>45005</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7936,7 +7936,7 @@
         <v>45005</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7998,7 +7998,7 @@
         <v>45007</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8060,7 +8060,7 @@
         <v>45007</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8122,7 +8122,7 @@
         <v>45007</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8184,7 +8184,7 @@
         <v>45007</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8246,7 +8246,7 @@
         <v>45007</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8308,7 +8308,7 @@
         <v>45007</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8370,7 +8370,7 @@
         <v>45016</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8432,7 +8432,7 @@
         <v>45016</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8494,7 +8494,7 @@
         <v>45016</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8556,7 +8556,7 @@
         <v>45016</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8618,7 +8618,7 @@
         <v>45016</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8680,7 +8680,7 @@
         <v>45019</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8742,7 +8742,7 @@
         <v>45027</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8804,7 +8804,7 @@
         <v>45027</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8866,7 +8866,7 @@
         <v>45040</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8923,7 +8923,7 @@
         <v>45040</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>

--- a/Översikt TROSA.xlsx
+++ b/Översikt TROSA.xlsx
@@ -572,7 +572,7 @@
         <v>43917</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -684,7 +684,7 @@
         <v>43704</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -787,7 +787,7 @@
         <v>43497</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -875,7 +875,7 @@
         <v>44062</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -963,7 +963,7 @@
         <v>44088</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1050,7 +1050,7 @@
         <v>43700</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1145,7 +1145,7 @@
         <v>43781</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1231,7 +1231,7 @@
         <v>44069</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1317,7 +1317,7 @@
         <v>44649</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1408,7 +1408,7 @@
         <v>43958</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1493,7 +1493,7 @@
         <v>43997</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1578,7 +1578,7 @@
         <v>44040</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1663,7 +1663,7 @@
         <v>44132</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1753,7 +1753,7 @@
         <v>44403</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1847,7 +1847,7 @@
         <v>44505</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1937,7 +1937,7 @@
         <v>43395</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1999,7 +1999,7 @@
         <v>43410</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2056,7 +2056,7 @@
         <v>43410</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2113,7 +2113,7 @@
         <v>43448</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2170,7 +2170,7 @@
         <v>43448</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2227,7 +2227,7 @@
         <v>43469</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2289,7 +2289,7 @@
         <v>43489</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2351,7 +2351,7 @@
         <v>43489</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2408,7 +2408,7 @@
         <v>43489</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2465,7 +2465,7 @@
         <v>43490</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2522,7 +2522,7 @@
         <v>43517</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2579,7 +2579,7 @@
         <v>43540</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2636,7 +2636,7 @@
         <v>43643</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2693,7 +2693,7 @@
         <v>43650</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2750,7 +2750,7 @@
         <v>43684</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2807,7 +2807,7 @@
         <v>43700</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2864,7 +2864,7 @@
         <v>43700</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2926,7 +2926,7 @@
         <v>43700</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2988,7 +2988,7 @@
         <v>43700</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3050,7 +3050,7 @@
         <v>43704</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3112,7 +3112,7 @@
         <v>43732</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3174,7 +3174,7 @@
         <v>43745</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3231,7 +3231,7 @@
         <v>43790</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3288,7 +3288,7 @@
         <v>43794</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3350,7 +3350,7 @@
         <v>43797</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3407,7 +3407,7 @@
         <v>43809</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3464,7 +3464,7 @@
         <v>43859</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3526,7 +3526,7 @@
         <v>43859</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3588,7 +3588,7 @@
         <v>43864</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3650,7 +3650,7 @@
         <v>43865</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3707,7 +3707,7 @@
         <v>43885</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3764,7 +3764,7 @@
         <v>43892</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3821,7 +3821,7 @@
         <v>43896</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3878,7 +3878,7 @@
         <v>43955</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3935,7 +3935,7 @@
         <v>43955</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3992,7 +3992,7 @@
         <v>43963</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4049,7 +4049,7 @@
         <v>43997</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4106,7 +4106,7 @@
         <v>43997</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4163,7 +4163,7 @@
         <v>44004</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4220,7 +4220,7 @@
         <v>44062</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4277,7 +4277,7 @@
         <v>44067</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4339,7 +4339,7 @@
         <v>44069</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4396,7 +4396,7 @@
         <v>44088</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4453,7 +4453,7 @@
         <v>44088</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4510,7 +4510,7 @@
         <v>44088</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4567,7 +4567,7 @@
         <v>44088</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4624,7 +4624,7 @@
         <v>44088</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4681,7 +4681,7 @@
         <v>44088</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4738,7 +4738,7 @@
         <v>44088</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4795,7 +4795,7 @@
         <v>44088</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4852,7 +4852,7 @@
         <v>44088</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4909,7 +4909,7 @@
         <v>44097</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4971,7 +4971,7 @@
         <v>44097</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5033,7 +5033,7 @@
         <v>44102</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5090,7 +5090,7 @@
         <v>44102</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5147,7 +5147,7 @@
         <v>44102</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5204,7 +5204,7 @@
         <v>44102</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5261,7 +5261,7 @@
         <v>44132</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5323,7 +5323,7 @@
         <v>44132</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5380,7 +5380,7 @@
         <v>44132</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5437,7 +5437,7 @@
         <v>44133</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5494,7 +5494,7 @@
         <v>44151</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5551,7 +5551,7 @@
         <v>44238</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5613,7 +5613,7 @@
         <v>44238</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5675,7 +5675,7 @@
         <v>44238</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5732,7 +5732,7 @@
         <v>44249</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5794,7 +5794,7 @@
         <v>44249</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5856,7 +5856,7 @@
         <v>44249</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5918,7 +5918,7 @@
         <v>44266</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5980,7 +5980,7 @@
         <v>44285</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6037,7 +6037,7 @@
         <v>44285</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6094,7 +6094,7 @@
         <v>44293</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6151,7 +6151,7 @@
         <v>44418</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6208,7 +6208,7 @@
         <v>44480</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6265,7 +6265,7 @@
         <v>44489</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6327,7 +6327,7 @@
         <v>44490</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6389,7 +6389,7 @@
         <v>44526</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6451,7 +6451,7 @@
         <v>44530</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6513,7 +6513,7 @@
         <v>44533</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6570,7 +6570,7 @@
         <v>44544</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6632,7 +6632,7 @@
         <v>44582</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6694,7 +6694,7 @@
         <v>44582</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6756,7 +6756,7 @@
         <v>44599</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6813,7 +6813,7 @@
         <v>44599</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6870,7 +6870,7 @@
         <v>44599</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6932,7 +6932,7 @@
         <v>44662</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6989,7 +6989,7 @@
         <v>44680</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7046,7 +7046,7 @@
         <v>44721</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7103,7 +7103,7 @@
         <v>44733</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7160,7 +7160,7 @@
         <v>44756</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7217,7 +7217,7 @@
         <v>44756</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7274,7 +7274,7 @@
         <v>44840</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7331,7 +7331,7 @@
         <v>44852</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7388,7 +7388,7 @@
         <v>44889</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7450,7 +7450,7 @@
         <v>44916</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7512,7 +7512,7 @@
         <v>44916</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7574,7 +7574,7 @@
         <v>44916</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7636,7 +7636,7 @@
         <v>44916</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7698,7 +7698,7 @@
         <v>44937</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7755,7 +7755,7 @@
         <v>44951</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7812,7 +7812,7 @@
         <v>44986</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7874,7 +7874,7 @@
         <v>45005</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7936,7 +7936,7 @@
         <v>45005</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7998,7 +7998,7 @@
         <v>45007</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8060,7 +8060,7 @@
         <v>45007</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8122,7 +8122,7 @@
         <v>45007</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8184,7 +8184,7 @@
         <v>45007</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8246,7 +8246,7 @@
         <v>45007</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8308,7 +8308,7 @@
         <v>45007</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8370,7 +8370,7 @@
         <v>45016</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8432,7 +8432,7 @@
         <v>45016</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8494,7 +8494,7 @@
         <v>45016</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8556,7 +8556,7 @@
         <v>45016</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8618,7 +8618,7 @@
         <v>45016</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8680,7 +8680,7 @@
         <v>45019</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8742,7 +8742,7 @@
         <v>45027</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8804,7 +8804,7 @@
         <v>45027</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8866,7 +8866,7 @@
         <v>45040</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8923,7 +8923,7 @@
         <v>45040</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>

--- a/Översikt TROSA.xlsx
+++ b/Översikt TROSA.xlsx
@@ -572,7 +572,7 @@
         <v>43917</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -684,7 +684,7 @@
         <v>43704</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -787,7 +787,7 @@
         <v>43497</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -875,7 +875,7 @@
         <v>44062</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -963,7 +963,7 @@
         <v>44088</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1050,7 +1050,7 @@
         <v>43700</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1145,7 +1145,7 @@
         <v>43781</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1231,7 +1231,7 @@
         <v>44069</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1317,7 +1317,7 @@
         <v>44649</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1408,7 +1408,7 @@
         <v>43958</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1493,7 +1493,7 @@
         <v>43997</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1578,7 +1578,7 @@
         <v>44040</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1663,7 +1663,7 @@
         <v>44132</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1753,7 +1753,7 @@
         <v>44403</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1847,7 +1847,7 @@
         <v>44505</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1937,7 +1937,7 @@
         <v>43395</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1999,7 +1999,7 @@
         <v>43410</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2056,7 +2056,7 @@
         <v>43410</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2113,7 +2113,7 @@
         <v>43448</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2170,7 +2170,7 @@
         <v>43448</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2227,7 +2227,7 @@
         <v>43469</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2289,7 +2289,7 @@
         <v>43489</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2351,7 +2351,7 @@
         <v>43489</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2408,7 +2408,7 @@
         <v>43489</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2465,7 +2465,7 @@
         <v>43490</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2522,7 +2522,7 @@
         <v>43517</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2579,7 +2579,7 @@
         <v>43540</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2636,7 +2636,7 @@
         <v>43643</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2693,7 +2693,7 @@
         <v>43650</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2750,7 +2750,7 @@
         <v>43684</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2807,7 +2807,7 @@
         <v>43700</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2864,7 +2864,7 @@
         <v>43700</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2926,7 +2926,7 @@
         <v>43700</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2988,7 +2988,7 @@
         <v>43700</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3050,7 +3050,7 @@
         <v>43704</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3112,7 +3112,7 @@
         <v>43732</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3174,7 +3174,7 @@
         <v>43745</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3231,7 +3231,7 @@
         <v>43790</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3288,7 +3288,7 @@
         <v>43794</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3350,7 +3350,7 @@
         <v>43797</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3407,7 +3407,7 @@
         <v>43809</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3464,7 +3464,7 @@
         <v>43859</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3526,7 +3526,7 @@
         <v>43859</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3588,7 +3588,7 @@
         <v>43864</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3650,7 +3650,7 @@
         <v>43865</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3707,7 +3707,7 @@
         <v>43885</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3764,7 +3764,7 @@
         <v>43892</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3821,7 +3821,7 @@
         <v>43896</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3878,7 +3878,7 @@
         <v>43955</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3935,7 +3935,7 @@
         <v>43955</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3992,7 +3992,7 @@
         <v>43963</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4049,7 +4049,7 @@
         <v>43997</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4106,7 +4106,7 @@
         <v>43997</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4163,7 +4163,7 @@
         <v>44004</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4220,7 +4220,7 @@
         <v>44062</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4277,7 +4277,7 @@
         <v>44067</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4339,7 +4339,7 @@
         <v>44069</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4396,7 +4396,7 @@
         <v>44088</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4453,7 +4453,7 @@
         <v>44088</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4510,7 +4510,7 @@
         <v>44088</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4567,7 +4567,7 @@
         <v>44088</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4624,7 +4624,7 @@
         <v>44088</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4681,7 +4681,7 @@
         <v>44088</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4738,7 +4738,7 @@
         <v>44088</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4795,7 +4795,7 @@
         <v>44088</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4852,7 +4852,7 @@
         <v>44088</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4909,7 +4909,7 @@
         <v>44097</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4971,7 +4971,7 @@
         <v>44097</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5033,7 +5033,7 @@
         <v>44102</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5090,7 +5090,7 @@
         <v>44102</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5147,7 +5147,7 @@
         <v>44102</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5204,7 +5204,7 @@
         <v>44102</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5261,7 +5261,7 @@
         <v>44132</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5323,7 +5323,7 @@
         <v>44132</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5380,7 +5380,7 @@
         <v>44132</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5437,7 +5437,7 @@
         <v>44133</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5494,7 +5494,7 @@
         <v>44151</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5551,7 +5551,7 @@
         <v>44238</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5613,7 +5613,7 @@
         <v>44238</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5675,7 +5675,7 @@
         <v>44238</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5732,7 +5732,7 @@
         <v>44249</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5794,7 +5794,7 @@
         <v>44249</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5856,7 +5856,7 @@
         <v>44249</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5918,7 +5918,7 @@
         <v>44266</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5980,7 +5980,7 @@
         <v>44285</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6037,7 +6037,7 @@
         <v>44285</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6094,7 +6094,7 @@
         <v>44293</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6151,7 +6151,7 @@
         <v>44418</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6208,7 +6208,7 @@
         <v>44480</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6265,7 +6265,7 @@
         <v>44489</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6327,7 +6327,7 @@
         <v>44490</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6389,7 +6389,7 @@
         <v>44526</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6451,7 +6451,7 @@
         <v>44530</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6513,7 +6513,7 @@
         <v>44533</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6570,7 +6570,7 @@
         <v>44544</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6632,7 +6632,7 @@
         <v>44582</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6694,7 +6694,7 @@
         <v>44582</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6756,7 +6756,7 @@
         <v>44599</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6813,7 +6813,7 @@
         <v>44599</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6870,7 +6870,7 @@
         <v>44599</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6932,7 +6932,7 @@
         <v>44662</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6989,7 +6989,7 @@
         <v>44680</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7046,7 +7046,7 @@
         <v>44721</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7103,7 +7103,7 @@
         <v>44733</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7160,7 +7160,7 @@
         <v>44756</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7217,7 +7217,7 @@
         <v>44756</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7274,7 +7274,7 @@
         <v>44840</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7331,7 +7331,7 @@
         <v>44852</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7388,7 +7388,7 @@
         <v>44889</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7450,7 +7450,7 @@
         <v>44916</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7512,7 +7512,7 @@
         <v>44916</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7574,7 +7574,7 @@
         <v>44916</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7636,7 +7636,7 @@
         <v>44916</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7698,7 +7698,7 @@
         <v>44937</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7755,7 +7755,7 @@
         <v>44951</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7812,7 +7812,7 @@
         <v>44986</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7874,7 +7874,7 @@
         <v>45005</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7936,7 +7936,7 @@
         <v>45005</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7998,7 +7998,7 @@
         <v>45007</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8060,7 +8060,7 @@
         <v>45007</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8122,7 +8122,7 @@
         <v>45007</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8184,7 +8184,7 @@
         <v>45007</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8246,7 +8246,7 @@
         <v>45007</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8308,7 +8308,7 @@
         <v>45007</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8370,7 +8370,7 @@
         <v>45016</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8432,7 +8432,7 @@
         <v>45016</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8494,7 +8494,7 @@
         <v>45016</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8556,7 +8556,7 @@
         <v>45016</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8618,7 +8618,7 @@
         <v>45016</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8680,7 +8680,7 @@
         <v>45019</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8742,7 +8742,7 @@
         <v>45027</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8804,7 +8804,7 @@
         <v>45027</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8866,7 +8866,7 @@
         <v>45040</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8923,7 +8923,7 @@
         <v>45040</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>

--- a/Översikt TROSA.xlsx
+++ b/Översikt TROSA.xlsx
@@ -572,7 +572,7 @@
         <v>43917</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -684,7 +684,7 @@
         <v>43704</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -787,7 +787,7 @@
         <v>43497</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -875,7 +875,7 @@
         <v>44062</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -963,7 +963,7 @@
         <v>44088</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1050,7 +1050,7 @@
         <v>43700</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1145,7 +1145,7 @@
         <v>43781</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1231,7 +1231,7 @@
         <v>44069</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1317,7 +1317,7 @@
         <v>44649</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1408,7 +1408,7 @@
         <v>43958</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1493,7 +1493,7 @@
         <v>43997</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1578,7 +1578,7 @@
         <v>44040</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1663,7 +1663,7 @@
         <v>44132</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1753,7 +1753,7 @@
         <v>44403</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1847,7 +1847,7 @@
         <v>44505</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1937,7 +1937,7 @@
         <v>43395</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1999,7 +1999,7 @@
         <v>43410</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2056,7 +2056,7 @@
         <v>43410</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2113,7 +2113,7 @@
         <v>43448</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2170,7 +2170,7 @@
         <v>43448</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2227,7 +2227,7 @@
         <v>43469</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2289,7 +2289,7 @@
         <v>43489</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2351,7 +2351,7 @@
         <v>43489</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2408,7 +2408,7 @@
         <v>43489</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2465,7 +2465,7 @@
         <v>43490</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2522,7 +2522,7 @@
         <v>43517</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2579,7 +2579,7 @@
         <v>43540</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2636,7 +2636,7 @@
         <v>43643</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2693,7 +2693,7 @@
         <v>43650</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2750,7 +2750,7 @@
         <v>43684</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2807,7 +2807,7 @@
         <v>43700</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2864,7 +2864,7 @@
         <v>43700</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2926,7 +2926,7 @@
         <v>43700</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2988,7 +2988,7 @@
         <v>43700</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3050,7 +3050,7 @@
         <v>43704</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3112,7 +3112,7 @@
         <v>43732</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3174,7 +3174,7 @@
         <v>43745</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3231,7 +3231,7 @@
         <v>43790</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3288,7 +3288,7 @@
         <v>43794</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3350,7 +3350,7 @@
         <v>43797</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3407,7 +3407,7 @@
         <v>43809</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3464,7 +3464,7 @@
         <v>43859</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3526,7 +3526,7 @@
         <v>43859</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3588,7 +3588,7 @@
         <v>43864</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3650,7 +3650,7 @@
         <v>43865</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3707,7 +3707,7 @@
         <v>43885</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3764,7 +3764,7 @@
         <v>43892</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3821,7 +3821,7 @@
         <v>43896</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3878,7 +3878,7 @@
         <v>43955</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3935,7 +3935,7 @@
         <v>43955</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3992,7 +3992,7 @@
         <v>43963</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4049,7 +4049,7 @@
         <v>43997</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4106,7 +4106,7 @@
         <v>43997</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4163,7 +4163,7 @@
         <v>44004</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4220,7 +4220,7 @@
         <v>44062</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4277,7 +4277,7 @@
         <v>44067</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4339,7 +4339,7 @@
         <v>44069</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4396,7 +4396,7 @@
         <v>44088</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4453,7 +4453,7 @@
         <v>44088</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4510,7 +4510,7 @@
         <v>44088</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4567,7 +4567,7 @@
         <v>44088</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4624,7 +4624,7 @@
         <v>44088</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4681,7 +4681,7 @@
         <v>44088</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4738,7 +4738,7 @@
         <v>44088</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4795,7 +4795,7 @@
         <v>44088</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4852,7 +4852,7 @@
         <v>44088</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4909,7 +4909,7 @@
         <v>44097</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4971,7 +4971,7 @@
         <v>44097</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5033,7 +5033,7 @@
         <v>44102</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5090,7 +5090,7 @@
         <v>44102</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5147,7 +5147,7 @@
         <v>44102</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5204,7 +5204,7 @@
         <v>44102</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5261,7 +5261,7 @@
         <v>44132</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5323,7 +5323,7 @@
         <v>44132</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5380,7 +5380,7 @@
         <v>44132</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5437,7 +5437,7 @@
         <v>44133</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5494,7 +5494,7 @@
         <v>44151</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5551,7 +5551,7 @@
         <v>44238</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5613,7 +5613,7 @@
         <v>44238</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5675,7 +5675,7 @@
         <v>44238</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5732,7 +5732,7 @@
         <v>44249</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5794,7 +5794,7 @@
         <v>44249</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5856,7 +5856,7 @@
         <v>44249</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5918,7 +5918,7 @@
         <v>44266</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5980,7 +5980,7 @@
         <v>44285</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6037,7 +6037,7 @@
         <v>44285</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6094,7 +6094,7 @@
         <v>44293</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6151,7 +6151,7 @@
         <v>44418</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6208,7 +6208,7 @@
         <v>44480</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6265,7 +6265,7 @@
         <v>44489</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6327,7 +6327,7 @@
         <v>44490</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6389,7 +6389,7 @@
         <v>44526</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6451,7 +6451,7 @@
         <v>44530</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6513,7 +6513,7 @@
         <v>44533</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6570,7 +6570,7 @@
         <v>44544</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6632,7 +6632,7 @@
         <v>44582</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6694,7 +6694,7 @@
         <v>44582</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6756,7 +6756,7 @@
         <v>44599</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6813,7 +6813,7 @@
         <v>44599</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6870,7 +6870,7 @@
         <v>44599</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6932,7 +6932,7 @@
         <v>44662</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6989,7 +6989,7 @@
         <v>44680</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7046,7 +7046,7 @@
         <v>44721</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7103,7 +7103,7 @@
         <v>44733</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7160,7 +7160,7 @@
         <v>44756</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7217,7 +7217,7 @@
         <v>44756</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7274,7 +7274,7 @@
         <v>44840</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7331,7 +7331,7 @@
         <v>44852</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7388,7 +7388,7 @@
         <v>44889</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7450,7 +7450,7 @@
         <v>44916</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7512,7 +7512,7 @@
         <v>44916</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7574,7 +7574,7 @@
         <v>44916</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7636,7 +7636,7 @@
         <v>44916</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7698,7 +7698,7 @@
         <v>44937</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7755,7 +7755,7 @@
         <v>44951</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7812,7 +7812,7 @@
         <v>44986</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7874,7 +7874,7 @@
         <v>45005</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7936,7 +7936,7 @@
         <v>45005</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7998,7 +7998,7 @@
         <v>45007</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8060,7 +8060,7 @@
         <v>45007</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8122,7 +8122,7 @@
         <v>45007</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8184,7 +8184,7 @@
         <v>45007</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8246,7 +8246,7 @@
         <v>45007</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8308,7 +8308,7 @@
         <v>45007</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8370,7 +8370,7 @@
         <v>45016</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8432,7 +8432,7 @@
         <v>45016</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8494,7 +8494,7 @@
         <v>45016</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8556,7 +8556,7 @@
         <v>45016</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8618,7 +8618,7 @@
         <v>45016</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8680,7 +8680,7 @@
         <v>45019</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8742,7 +8742,7 @@
         <v>45027</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8804,7 +8804,7 @@
         <v>45027</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8866,7 +8866,7 @@
         <v>45040</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8923,7 +8923,7 @@
         <v>45040</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>

--- a/Översikt TROSA.xlsx
+++ b/Översikt TROSA.xlsx
@@ -572,7 +572,7 @@
         <v>43917</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -684,7 +684,7 @@
         <v>43704</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -787,7 +787,7 @@
         <v>43497</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -875,7 +875,7 @@
         <v>44062</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -963,7 +963,7 @@
         <v>44088</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1050,7 +1050,7 @@
         <v>43700</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1145,7 +1145,7 @@
         <v>43781</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1231,7 +1231,7 @@
         <v>44069</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1317,7 +1317,7 @@
         <v>44649</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1408,7 +1408,7 @@
         <v>43958</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1493,7 +1493,7 @@
         <v>43997</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1578,7 +1578,7 @@
         <v>44040</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1663,7 +1663,7 @@
         <v>44132</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1753,7 +1753,7 @@
         <v>44403</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1847,7 +1847,7 @@
         <v>44505</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1937,7 +1937,7 @@
         <v>43395</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1999,7 +1999,7 @@
         <v>43410</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2056,7 +2056,7 @@
         <v>43410</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2113,7 +2113,7 @@
         <v>43448</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2170,7 +2170,7 @@
         <v>43448</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2227,7 +2227,7 @@
         <v>43469</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2289,7 +2289,7 @@
         <v>43489</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2351,7 +2351,7 @@
         <v>43489</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2408,7 +2408,7 @@
         <v>43489</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2465,7 +2465,7 @@
         <v>43490</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2522,7 +2522,7 @@
         <v>43517</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2579,7 +2579,7 @@
         <v>43540</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2636,7 +2636,7 @@
         <v>43643</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2693,7 +2693,7 @@
         <v>43650</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2750,7 +2750,7 @@
         <v>43684</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2807,7 +2807,7 @@
         <v>43700</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2864,7 +2864,7 @@
         <v>43700</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2926,7 +2926,7 @@
         <v>43700</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2988,7 +2988,7 @@
         <v>43700</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3050,7 +3050,7 @@
         <v>43704</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3112,7 +3112,7 @@
         <v>43732</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3174,7 +3174,7 @@
         <v>43745</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3231,7 +3231,7 @@
         <v>43790</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3288,7 +3288,7 @@
         <v>43794</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3350,7 +3350,7 @@
         <v>43797</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3407,7 +3407,7 @@
         <v>43809</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3464,7 +3464,7 @@
         <v>43859</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3526,7 +3526,7 @@
         <v>43859</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3588,7 +3588,7 @@
         <v>43864</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3650,7 +3650,7 @@
         <v>43865</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3707,7 +3707,7 @@
         <v>43885</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3764,7 +3764,7 @@
         <v>43892</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3821,7 +3821,7 @@
         <v>43896</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3878,7 +3878,7 @@
         <v>43955</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3935,7 +3935,7 @@
         <v>43955</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3992,7 +3992,7 @@
         <v>43963</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4049,7 +4049,7 @@
         <v>43997</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4106,7 +4106,7 @@
         <v>43997</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4163,7 +4163,7 @@
         <v>44004</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4220,7 +4220,7 @@
         <v>44062</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4277,7 +4277,7 @@
         <v>44067</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4339,7 +4339,7 @@
         <v>44069</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4396,7 +4396,7 @@
         <v>44088</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4453,7 +4453,7 @@
         <v>44088</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4510,7 +4510,7 @@
         <v>44088</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4567,7 +4567,7 @@
         <v>44088</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4624,7 +4624,7 @@
         <v>44088</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4681,7 +4681,7 @@
         <v>44088</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4738,7 +4738,7 @@
         <v>44088</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4795,7 +4795,7 @@
         <v>44088</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4852,7 +4852,7 @@
         <v>44088</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4909,7 +4909,7 @@
         <v>44097</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4971,7 +4971,7 @@
         <v>44097</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5033,7 +5033,7 @@
         <v>44102</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5090,7 +5090,7 @@
         <v>44102</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5147,7 +5147,7 @@
         <v>44102</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5204,7 +5204,7 @@
         <v>44102</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5261,7 +5261,7 @@
         <v>44132</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5323,7 +5323,7 @@
         <v>44132</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5380,7 +5380,7 @@
         <v>44132</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5437,7 +5437,7 @@
         <v>44133</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5494,7 +5494,7 @@
         <v>44151</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5551,7 +5551,7 @@
         <v>44238</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5613,7 +5613,7 @@
         <v>44238</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5675,7 +5675,7 @@
         <v>44238</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5732,7 +5732,7 @@
         <v>44249</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5794,7 +5794,7 @@
         <v>44249</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5856,7 +5856,7 @@
         <v>44249</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5918,7 +5918,7 @@
         <v>44266</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5980,7 +5980,7 @@
         <v>44285</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6037,7 +6037,7 @@
         <v>44285</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6094,7 +6094,7 @@
         <v>44293</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6151,7 +6151,7 @@
         <v>44418</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6208,7 +6208,7 @@
         <v>44480</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6265,7 +6265,7 @@
         <v>44489</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6327,7 +6327,7 @@
         <v>44490</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6389,7 +6389,7 @@
         <v>44526</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6451,7 +6451,7 @@
         <v>44530</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6513,7 +6513,7 @@
         <v>44533</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6570,7 +6570,7 @@
         <v>44544</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6632,7 +6632,7 @@
         <v>44582</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6694,7 +6694,7 @@
         <v>44582</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6756,7 +6756,7 @@
         <v>44599</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6813,7 +6813,7 @@
         <v>44599</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6870,7 +6870,7 @@
         <v>44599</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6932,7 +6932,7 @@
         <v>44662</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6989,7 +6989,7 @@
         <v>44680</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7046,7 +7046,7 @@
         <v>44721</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7103,7 +7103,7 @@
         <v>44733</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7160,7 +7160,7 @@
         <v>44756</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7217,7 +7217,7 @@
         <v>44756</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7274,7 +7274,7 @@
         <v>44840</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7331,7 +7331,7 @@
         <v>44852</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7388,7 +7388,7 @@
         <v>44889</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7450,7 +7450,7 @@
         <v>44916</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7512,7 +7512,7 @@
         <v>44916</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7574,7 +7574,7 @@
         <v>44916</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7636,7 +7636,7 @@
         <v>44916</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7698,7 +7698,7 @@
         <v>44937</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7755,7 +7755,7 @@
         <v>44951</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7812,7 +7812,7 @@
         <v>44986</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7874,7 +7874,7 @@
         <v>45005</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7936,7 +7936,7 @@
         <v>45005</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7998,7 +7998,7 @@
         <v>45007</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8060,7 +8060,7 @@
         <v>45007</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8122,7 +8122,7 @@
         <v>45007</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8184,7 +8184,7 @@
         <v>45007</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8246,7 +8246,7 @@
         <v>45007</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8308,7 +8308,7 @@
         <v>45007</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8370,7 +8370,7 @@
         <v>45016</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8432,7 +8432,7 @@
         <v>45016</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8494,7 +8494,7 @@
         <v>45016</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8556,7 +8556,7 @@
         <v>45016</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8618,7 +8618,7 @@
         <v>45016</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8680,7 +8680,7 @@
         <v>45019</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8742,7 +8742,7 @@
         <v>45027</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8804,7 +8804,7 @@
         <v>45027</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8866,7 +8866,7 @@
         <v>45040</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8923,7 +8923,7 @@
         <v>45040</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
